--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Set" sheetId="1" r:id="rId1"/>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -784,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -806,7 +806,7 @@
         <v>7</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -817,7 +817,7 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -828,7 +828,7 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -839,7 +839,7 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,7 +850,7 @@
         <v>11</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,7 +861,7 @@
         <v>12</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,7 +872,7 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,7 +883,7 @@
         <v>15</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -894,7 +894,7 @@
         <v>16</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -916,7 +916,7 @@
         <v>18</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -927,7 +927,7 @@
         <v>19</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -938,7 +938,7 @@
         <v>20</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>5</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -960,7 +960,7 @@
         <v>14</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -971,7 +971,7 @@
         <v>6</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -984,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DK18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP1" workbookViewId="0">
+    <sheetView topLeftCell="AP1" workbookViewId="0">
       <selection activeCell="AU2" sqref="AU2"/>
     </sheetView>
   </sheetViews>

--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Set" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
   <si>
     <t>S</t>
   </si>
@@ -303,6 +303,18 @@
   </si>
   <si>
     <t>cj</t>
+  </si>
+  <si>
+    <t>ta</t>
+  </si>
+  <si>
+    <t>تعداد پله های نرخ انتشار کربن</t>
+  </si>
+  <si>
+    <t>RE</t>
+  </si>
+  <si>
+    <t>Cu</t>
   </si>
 </sst>
 </file>
@@ -418,7 +430,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -471,6 +483,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -753,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -974,6 +989,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -982,10 +1008,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DK18"/>
+  <dimension ref="A1:DO18"/>
   <sheetViews>
-    <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection activeCell="AU2" sqref="AU2"/>
+    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
+      <selection activeCell="DO5" sqref="DO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1103,9 +1129,11 @@
     <col min="113" max="113" width="3.3984375" style="13" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="1.8984375" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="3.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="1.8984375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:115" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:119" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -1297,8 +1325,15 @@
         <v>82</v>
       </c>
       <c r="DK1" s="3"/>
-    </row>
-    <row r="2" spans="1:115" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="DL1" s="16" t="s">
+        <v>96</v>
+      </c>
+      <c r="DM1" s="16"/>
+      <c r="DN1" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:119" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
@@ -1556,670 +1591,689 @@
         <v>40</v>
       </c>
       <c r="DK2" s="6"/>
-    </row>
-    <row r="3" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="DL2" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="DM2" s="17"/>
+      <c r="DN2" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" s="11">
         <v>16</v>
       </c>
       <c r="F3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" s="11">
         <v>27</v>
       </c>
       <c r="J3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M3" s="11">
         <v>26</v>
       </c>
       <c r="N3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O3" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="11">
         <v>21</v>
       </c>
       <c r="R3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S3" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" s="11">
         <v>28</v>
       </c>
       <c r="V3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="11">
         <v>30</v>
       </c>
       <c r="Z3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB3" s="11">
         <v>20</v>
       </c>
       <c r="AC3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="11">
         <v>20</v>
       </c>
       <c r="AF3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH3" s="11">
         <v>18</v>
       </c>
       <c r="AI3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK3" s="11">
         <v>16</v>
       </c>
       <c r="AL3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN3" s="11">
         <v>17</v>
       </c>
       <c r="AO3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ3" s="11">
         <v>12</v>
       </c>
       <c r="AR3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="11">
         <v>17</v>
       </c>
       <c r="AU3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV3" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX3" s="11">
         <v>20</v>
       </c>
       <c r="AY3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA3" s="11">
         <v>17</v>
       </c>
       <c r="BB3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="11">
         <v>12</v>
       </c>
       <c r="BE3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF3" s="11">
         <v>18</v>
       </c>
       <c r="BG3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH3" s="11">
         <v>14</v>
       </c>
       <c r="BI3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BJ3" s="11">
         <v>16</v>
       </c>
       <c r="BK3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL3" s="11">
         <v>14</v>
       </c>
       <c r="BM3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO3" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP3" s="11">
         <v>16</v>
       </c>
       <c r="BQ3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="11">
         <v>13</v>
       </c>
       <c r="BT3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BU3" s="11">
         <v>16</v>
       </c>
       <c r="BV3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BW3" s="11">
         <v>16</v>
       </c>
       <c r="BX3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BY3" s="11">
         <v>20</v>
       </c>
       <c r="BZ3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CA3" s="11">
         <v>20</v>
       </c>
       <c r="CB3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="11">
         <v>14</v>
       </c>
       <c r="CD3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CE3" s="11">
         <v>10</v>
       </c>
       <c r="CF3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG3" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH3" s="11">
         <v>16</v>
       </c>
       <c r="CI3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CJ3" s="11">
         <v>13</v>
       </c>
       <c r="CK3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CL3" s="11">
         <v>10</v>
       </c>
       <c r="CM3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CN3" s="11">
         <v>16</v>
       </c>
       <c r="CO3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CP3" s="11">
         <v>16</v>
       </c>
       <c r="CQ3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CR3" s="11">
         <v>13</v>
       </c>
       <c r="CS3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CT3" s="11">
         <v>15</v>
       </c>
       <c r="CU3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CV3" s="11">
         <v>19</v>
       </c>
       <c r="CW3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CX3" s="11">
         <v>14</v>
       </c>
       <c r="CY3" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CZ3" s="11">
         <v>0.83321624759823809</v>
       </c>
       <c r="DA3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DB3" s="11">
         <v>1.5097993602399939E-2</v>
       </c>
       <c r="DC3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DD3" s="11">
         <v>0.76909021854371851</v>
       </c>
       <c r="DE3" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" s="11">
         <v>0.19499815880232108</v>
       </c>
       <c r="DG3" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="DH3" s="11">
         <v>0.23491835137099393</v>
       </c>
       <c r="DI3" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK3" s="11">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="DL3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="DN3" s="22">
+        <v>0</v>
+      </c>
+      <c r="DO3" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C4" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" s="11">
         <v>16</v>
       </c>
       <c r="F4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" s="11">
         <v>25</v>
       </c>
       <c r="J4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M4" s="11">
         <v>20</v>
       </c>
       <c r="N4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q4" s="11">
         <v>24</v>
       </c>
       <c r="R4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S4" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U4" s="11">
         <v>28</v>
       </c>
       <c r="V4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y4" s="11">
         <v>24</v>
       </c>
       <c r="Z4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB4" s="11">
         <v>20</v>
       </c>
       <c r="AC4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="11">
         <v>11</v>
       </c>
       <c r="AF4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH4" s="11">
         <v>13</v>
       </c>
       <c r="AI4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK4" s="11">
         <v>14</v>
       </c>
       <c r="AL4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN4" s="11">
         <v>12</v>
       </c>
       <c r="AO4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ4" s="11">
         <v>19</v>
       </c>
       <c r="AR4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT4" s="11">
         <v>11</v>
       </c>
       <c r="AU4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="11">
         <v>15</v>
       </c>
       <c r="AY4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA4" s="11">
         <v>12</v>
       </c>
       <c r="BB4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD4" s="11">
         <v>20</v>
       </c>
       <c r="BE4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BF4" s="11">
         <v>13</v>
       </c>
       <c r="BG4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BH4" s="11">
         <v>18</v>
       </c>
       <c r="BI4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BJ4" s="11">
         <v>17</v>
       </c>
       <c r="BK4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BL4" s="11">
         <v>15</v>
       </c>
       <c r="BM4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO4" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP4" s="11">
         <v>11</v>
       </c>
       <c r="BQ4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BR4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS4" s="11">
         <v>13</v>
       </c>
       <c r="BT4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BU4" s="11">
         <v>19</v>
       </c>
       <c r="BV4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BW4" s="11">
         <v>14</v>
       </c>
       <c r="BX4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BY4" s="11">
         <v>13</v>
       </c>
       <c r="BZ4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CA4" s="11">
         <v>20</v>
       </c>
       <c r="CB4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CC4" s="11">
         <v>14</v>
       </c>
       <c r="CD4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CE4" s="11">
         <v>20</v>
       </c>
       <c r="CF4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CG4" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CH4" s="11">
         <v>11</v>
       </c>
       <c r="CI4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CJ4" s="11">
         <v>10</v>
       </c>
       <c r="CK4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CL4" s="11">
         <v>13</v>
       </c>
       <c r="CM4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CN4" s="11">
         <v>11</v>
       </c>
       <c r="CO4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CP4" s="11">
         <v>17</v>
       </c>
       <c r="CQ4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CR4" s="11">
         <v>14</v>
       </c>
       <c r="CS4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CT4" s="11">
         <v>14</v>
       </c>
       <c r="CU4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CV4" s="11">
         <v>11</v>
       </c>
       <c r="CW4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CX4" s="11">
         <v>17</v>
       </c>
       <c r="CZ4" s="10"/>
       <c r="DA4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DB4" s="11">
         <v>0.24120908188913781</v>
       </c>
       <c r="DC4" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DD4" s="11">
         <v>0.18093167816270983</v>
@@ -2229,180 +2283,192 @@
       <c r="DG4" s="10"/>
       <c r="DH4" s="10"/>
       <c r="DI4" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DJ4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DK4" s="11">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="DL4" s="21">
+        <v>1</v>
+      </c>
+      <c r="DM4" s="21">
+        <v>2</v>
+      </c>
+      <c r="DN4" s="21">
+        <v>1</v>
+      </c>
+      <c r="DO4" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" s="11">
         <v>14</v>
       </c>
       <c r="F5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="11">
         <v>26</v>
       </c>
       <c r="J5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="11">
         <v>30</v>
       </c>
       <c r="N5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O5" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q5" s="11">
         <v>20</v>
       </c>
       <c r="R5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S5" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" s="11">
         <v>29</v>
       </c>
       <c r="V5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5" s="11">
         <v>28</v>
       </c>
       <c r="Z5" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB5" s="11">
         <v>20</v>
       </c>
       <c r="AC5" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="11">
         <v>16</v>
       </c>
       <c r="AF5" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="11">
         <v>14</v>
       </c>
       <c r="AI5" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK5" s="11">
         <v>10</v>
       </c>
       <c r="AL5" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN5" s="11">
         <v>20</v>
       </c>
       <c r="AO5" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ5" s="11">
         <v>16</v>
       </c>
       <c r="AR5" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="11">
         <v>14</v>
       </c>
       <c r="AU5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV5" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX5" s="11">
         <v>14</v>
       </c>
       <c r="AY5" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA5" s="11">
         <v>12</v>
       </c>
       <c r="BB5" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="11">
         <v>11</v>
@@ -2416,22 +2482,22 @@
       <c r="BK5" s="10"/>
       <c r="BL5" s="11"/>
       <c r="BM5" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO5" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP5" s="11">
         <v>17</v>
       </c>
       <c r="BQ5" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="11">
         <v>11</v>
@@ -2449,10 +2515,10 @@
       <c r="CD5" s="10"/>
       <c r="CE5" s="11"/>
       <c r="CF5" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CG5" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="CH5" s="11">
         <v>10</v>
@@ -2483,180 +2549,192 @@
       <c r="DG5" s="10"/>
       <c r="DH5" s="10"/>
       <c r="DI5" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DJ5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DK5" s="11">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="DL5" s="21">
+        <v>2</v>
+      </c>
+      <c r="DM5" s="21">
+        <v>3</v>
+      </c>
+      <c r="DN5" s="21">
+        <v>2</v>
+      </c>
+      <c r="DO5" s="21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B6" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" s="11">
         <v>13</v>
       </c>
       <c r="F6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="11">
         <v>27</v>
       </c>
       <c r="J6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="11">
         <v>29</v>
       </c>
       <c r="N6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q6" s="11">
         <v>25</v>
       </c>
       <c r="R6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S6" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T6" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U6" s="11">
         <v>29</v>
       </c>
       <c r="V6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y6" s="11">
         <v>29</v>
       </c>
       <c r="Z6" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA6" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB6" s="11">
         <v>10</v>
       </c>
       <c r="AC6" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="11">
         <v>20</v>
       </c>
       <c r="AF6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="11">
         <v>17</v>
       </c>
       <c r="AI6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="11">
         <v>10</v>
       </c>
       <c r="AL6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AN6" s="11">
         <v>12</v>
       </c>
       <c r="AO6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AQ6" s="11">
         <v>16</v>
       </c>
       <c r="AR6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT6" s="11">
         <v>13</v>
       </c>
       <c r="AU6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV6" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="11">
         <v>19</v>
       </c>
       <c r="AY6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA6" s="11">
         <v>12</v>
       </c>
       <c r="BB6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD6" s="11">
         <v>11</v>
@@ -2670,22 +2748,22 @@
       <c r="BK6" s="10"/>
       <c r="BL6" s="11"/>
       <c r="BM6" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO6" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP6" s="11">
         <v>16</v>
       </c>
       <c r="BQ6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BR6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BS6" s="11">
         <v>10</v>
@@ -2703,10 +2781,10 @@
       <c r="CD6" s="10"/>
       <c r="CE6" s="11"/>
       <c r="CF6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CG6" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="CH6" s="11">
         <v>16</v>
@@ -2737,87 +2815,99 @@
       <c r="DG6" s="10"/>
       <c r="DH6" s="10"/>
       <c r="DI6" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DJ6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="DK6" s="11">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="DL6" s="21">
+        <v>3</v>
+      </c>
+      <c r="DM6" s="21">
+        <v>4</v>
+      </c>
+      <c r="DN6" s="21">
+        <v>3</v>
+      </c>
+      <c r="DO6" s="21">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D7" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11">
         <v>19</v>
       </c>
       <c r="F7" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="11">
         <v>30</v>
       </c>
       <c r="J7" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M7" s="11">
         <v>28</v>
       </c>
       <c r="N7" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O7" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7" s="11">
         <v>30</v>
       </c>
       <c r="R7" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S7" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U7" s="11">
         <v>27</v>
       </c>
       <c r="V7" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W7" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="11">
         <v>28</v>
@@ -2843,13 +2933,13 @@
       <c r="AS7" s="11"/>
       <c r="AT7" s="12"/>
       <c r="AU7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV7" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW7" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX7" s="11">
         <v>17</v>
@@ -2869,13 +2959,13 @@
       <c r="BK7" s="10"/>
       <c r="BL7" s="11"/>
       <c r="BM7" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP7" s="11">
         <v>20</v>
@@ -2925,78 +3015,78 @@
       <c r="DI7" s="10"/>
       <c r="DK7" s="11"/>
     </row>
-    <row r="8" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" s="11">
         <v>12</v>
       </c>
       <c r="F8" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" s="11">
         <v>28</v>
       </c>
       <c r="J8" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M8" s="11">
         <v>26</v>
       </c>
       <c r="N8" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="11">
         <v>23</v>
       </c>
       <c r="R8" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U8" s="11">
         <v>28</v>
       </c>
       <c r="V8" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="11">
         <v>27</v>
@@ -3022,13 +3112,13 @@
       <c r="AS8" s="11"/>
       <c r="AT8" s="12"/>
       <c r="AU8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV8" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW8" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="11">
         <v>19</v>
@@ -3048,13 +3138,13 @@
       <c r="BK8" s="10"/>
       <c r="BL8" s="11"/>
       <c r="BM8" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO8" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP8" s="11">
         <v>15</v>
@@ -3104,78 +3194,78 @@
       <c r="DI8" s="10"/>
       <c r="DK8" s="11"/>
     </row>
-    <row r="9" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B9" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="11">
         <v>11</v>
       </c>
       <c r="F9" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G9" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" s="11">
         <v>22</v>
       </c>
       <c r="J9" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K9" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9" s="11">
         <v>30</v>
       </c>
       <c r="N9" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O9" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="11">
         <v>25</v>
       </c>
       <c r="R9" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S9" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="11">
         <v>26</v>
       </c>
       <c r="V9" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W9" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="11">
         <v>30</v>
@@ -3201,13 +3291,13 @@
       <c r="AS9" s="11"/>
       <c r="AT9" s="12"/>
       <c r="AU9" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV9" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW9" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX9" s="11">
         <v>16</v>
@@ -3227,13 +3317,13 @@
       <c r="BK9" s="10"/>
       <c r="BL9" s="11"/>
       <c r="BM9" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO9" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BP9" s="11">
         <v>12</v>
@@ -3283,78 +3373,78 @@
       <c r="DI9" s="10"/>
       <c r="DK9" s="11"/>
     </row>
-    <row r="10" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" s="11">
         <v>14</v>
       </c>
       <c r="F10" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G10" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" s="11">
         <v>26</v>
       </c>
       <c r="J10" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M10" s="11">
         <v>25</v>
       </c>
       <c r="N10" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O10" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="11">
         <v>26</v>
       </c>
       <c r="R10" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S10" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T10" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U10" s="11">
         <v>21</v>
       </c>
       <c r="V10" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W10" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y10" s="11">
         <v>23</v>
@@ -3380,13 +3470,13 @@
       <c r="AS10" s="11"/>
       <c r="AT10" s="12"/>
       <c r="AU10" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV10" s="18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AW10" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10" s="11">
         <v>15</v>
@@ -3406,13 +3496,13 @@
       <c r="BK10" s="10"/>
       <c r="BL10" s="11"/>
       <c r="BM10" s="10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BN10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BO10" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BP10" s="11">
         <v>10</v>
@@ -3462,18 +3552,18 @@
       <c r="DI10" s="10"/>
       <c r="DK10" s="11"/>
     </row>
-    <row r="11" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11">
         <v>13</v>
@@ -3580,18 +3670,18 @@
       <c r="DI11" s="10"/>
       <c r="DK11" s="11"/>
     </row>
-    <row r="12" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B12" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C12" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" s="11">
         <v>19</v>
@@ -3698,18 +3788,18 @@
       <c r="DI12" s="10"/>
       <c r="DK12" s="11"/>
     </row>
-    <row r="13" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B13" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D13" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" s="11">
         <v>18</v>
@@ -3816,18 +3906,18 @@
       <c r="DI13" s="10"/>
       <c r="DK13" s="11"/>
     </row>
-    <row r="14" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B14" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D14" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E14" s="11">
         <v>17</v>
@@ -3934,18 +4024,18 @@
       <c r="DI14" s="10"/>
       <c r="DK14" s="11"/>
     </row>
-    <row r="15" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B15" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C15" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D15" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E15" s="11">
         <v>20</v>
@@ -4052,18 +4142,18 @@
       <c r="DI15" s="10"/>
       <c r="DK15" s="11"/>
     </row>
-    <row r="16" spans="1:115" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B16" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C16" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E16" s="11">
         <v>16</v>
@@ -4172,16 +4262,16 @@
     </row>
     <row r="17" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B17" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C17" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D17" s="18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17" s="11">
         <v>19</v>
@@ -4290,16 +4380,16 @@
     </row>
     <row r="18" spans="1:115" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B18" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C18" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D18" s="18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E18" s="11">
         <v>10</v>

--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
   <si>
     <t>S</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>Cu</t>
+  </si>
+  <si>
+    <t>BE</t>
+  </si>
+  <si>
+    <t>be</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1014,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DO18"/>
+  <dimension ref="A1:DQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
-      <selection activeCell="DO5" sqref="DO5"/>
+      <selection activeCell="DQ3" sqref="DQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1131,9 +1137,11 @@
     <col min="115" max="115" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="3.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="1.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="1.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:119" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:121" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -1332,8 +1340,11 @@
       <c r="DN1" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="2" spans="1:119" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="DP1" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:121" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
@@ -1598,8 +1609,11 @@
       <c r="DN2" s="7" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="3" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="DP2" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -1957,8 +1971,14 @@
       <c r="DO3" s="22">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="DP3" s="22">
+        <v>0</v>
+      </c>
+      <c r="DQ3" s="22">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>0</v>
       </c>
@@ -2304,7 +2324,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>0</v>
       </c>
@@ -2570,7 +2590,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>0</v>
       </c>
@@ -2836,7 +2856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>0</v>
       </c>
@@ -3015,7 +3035,7 @@
       <c r="DI7" s="10"/>
       <c r="DK7" s="11"/>
     </row>
-    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>0</v>
       </c>
@@ -3194,7 +3214,7 @@
       <c r="DI8" s="10"/>
       <c r="DK8" s="11"/>
     </row>
-    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>0</v>
       </c>
@@ -3373,7 +3393,7 @@
       <c r="DI9" s="10"/>
       <c r="DK9" s="11"/>
     </row>
-    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>0</v>
       </c>
@@ -3552,7 +3572,7 @@
       <c r="DI10" s="10"/>
       <c r="DK10" s="11"/>
     </row>
-    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>0</v>
       </c>
@@ -3670,7 +3690,7 @@
       <c r="DI11" s="10"/>
       <c r="DK11" s="11"/>
     </row>
-    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>0</v>
       </c>
@@ -3788,7 +3808,7 @@
       <c r="DI12" s="10"/>
       <c r="DK12" s="11"/>
     </row>
-    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>0</v>
       </c>
@@ -3906,7 +3926,7 @@
       <c r="DI13" s="10"/>
       <c r="DK13" s="11"/>
     </row>
-    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
         <v>0</v>
       </c>
@@ -4024,7 +4044,7 @@
       <c r="DI14" s="10"/>
       <c r="DK14" s="11"/>
     </row>
-    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
         <v>0</v>
       </c>
@@ -4142,7 +4162,7 @@
       <c r="DI15" s="10"/>
       <c r="DK15" s="11"/>
     </row>
-    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>0</v>
       </c>

--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="101">
   <si>
     <t>S</t>
   </si>
@@ -321,6 +321,9 @@
   </si>
   <si>
     <t>be</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r </t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1020,7 @@
   <dimension ref="A1:DQ18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
-      <selection activeCell="DQ3" sqref="DQ3"/>
+      <selection activeCell="CY1" sqref="CY1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1312,7 +1315,7 @@
       </c>
       <c r="CX1" s="3"/>
       <c r="CY1" s="2" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="DA1" s="2" t="s">
         <v>75</v>

--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="101">
   <si>
     <t>S</t>
   </si>
@@ -1017,10 +1017,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:DQ18"/>
+  <dimension ref="A1:DW18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CR1" workbookViewId="0">
-      <selection activeCell="CY1" sqref="CY1"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AY2" sqref="AY2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1069,82 +1069,83 @@
     <col min="44" max="44" width="3.3984375" style="13" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="1.8984375" style="14" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="2.8984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="1.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="1.8984375" style="19" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="1.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="2.8984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="1.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="1.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="2.8984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="3.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="47" max="52" width="2.8984375" style="14" customWidth="1"/>
+    <col min="53" max="53" width="1.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="1.8984375" style="19" bestFit="1" customWidth="1"/>
     <col min="55" max="55" width="1.8984375" style="14" bestFit="1" customWidth="1"/>
     <col min="56" max="56" width="2.8984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="4" style="13" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="4.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="4.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="5.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="1.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="1.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="2.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="3.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="1.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="2.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="4" style="13" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="3.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="1.8984375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="1.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="4.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="4.8984375" style="13" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="3.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="1.8984375" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="3.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="4.19921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="4.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="5.09765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="3.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="1.8984375" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="1.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="3.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="1.8984375" bestFit="1" customWidth="1"/>
     <col min="77" max="77" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="4.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="3.19921875" style="13" bestFit="1" customWidth="1"/>
     <col min="79" max="79" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="80" max="80" width="2" style="13" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="4.19921875" style="13" bestFit="1" customWidth="1"/>
     <col min="81" max="81" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="2" style="13" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="4.19921875" style="13" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="2" style="13" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="1.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="2.8984375" style="15" bestFit="1" customWidth="1"/>
-    <col min="87" max="87" width="3.69921875" style="13" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="3.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="91" max="91" width="3.59765625" style="13" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="4.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="4.19921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="2" style="13" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="2" style="13" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="2" style="13" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="1.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="2.8984375" style="15" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="3.69921875" style="13" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="95" max="95" width="4.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="3.296875" style="13" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="4.796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="3.59765625" style="13" bestFit="1" customWidth="1"/>
     <col min="98" max="98" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="4.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="4.59765625" style="13" bestFit="1" customWidth="1"/>
     <col min="100" max="100" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="3.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="4.59765625" style="13" bestFit="1" customWidth="1"/>
     <col min="102" max="102" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="1.8984375" bestFit="1" customWidth="1"/>
-    <col min="104" max="104" width="11.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="105" max="105" width="3.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="107" max="107" width="3.296875" style="13" bestFit="1" customWidth="1"/>
-    <col min="108" max="108" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="4.796875" style="13" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="4.69921875" style="13" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="3.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="1.8984375" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="11.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="111" max="111" width="2.8984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.8984375" style="13" customWidth="1"/>
-    <col min="113" max="113" width="3.3984375" style="13" bestFit="1" customWidth="1"/>
-    <col min="114" max="114" width="1.8984375" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="3.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="3.296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="11.8984375" style="14" bestFit="1" customWidth="1"/>
     <col min="115" max="115" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
-    <col min="116" max="116" width="3.09765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="117" max="117" width="1.8984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="3.19921875" bestFit="1" customWidth="1"/>
-    <col min="119" max="119" width="1.8984375" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="11.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="2.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.8984375" style="13" customWidth="1"/>
+    <col min="119" max="119" width="3.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="1.8984375" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="2.8984375" style="14" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="3.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="1.8984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="3.19921875" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="1.8984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:121" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:127" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -1212,142 +1213,148 @@
       </c>
       <c r="AS1" s="3"/>
       <c r="AT1" s="8"/>
-      <c r="AU1" s="2" t="s">
+      <c r="AU1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="BA1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AV1" s="16"/>
-      <c r="AW1" s="3"/>
-      <c r="AX1" s="8"/>
-      <c r="AY1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ1" s="3"/>
-      <c r="BA1" s="8"/>
-      <c r="BB1" s="2" t="s">
-        <v>49</v>
-      </c>
+      <c r="BB1" s="16"/>
       <c r="BC1" s="3"/>
       <c r="BD1" s="8"/>
       <c r="BE1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF1" s="3"/>
+      <c r="BG1" s="8"/>
+      <c r="BH1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI1" s="3"/>
+      <c r="BJ1" s="8"/>
+      <c r="BK1" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="BF1" s="3"/>
-      <c r="BG1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="BH1" s="3"/>
-      <c r="BI1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="BJ1" s="3"/>
-      <c r="BK1" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="BL1" s="3"/>
       <c r="BM1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="BO1" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="BN1" s="3"/>
+      <c r="BO1" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="BP1" s="3"/>
       <c r="BQ1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="BR1" s="3"/>
+      <c r="BS1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="BU1" s="3"/>
+      <c r="BV1" s="3"/>
+      <c r="BW1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="BS1" s="3"/>
-      <c r="BT1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="BU1" s="3"/>
-      <c r="BV1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="BW1" s="3"/>
-      <c r="BX1" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="BY1" s="3"/>
       <c r="BZ1" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="CA1" s="3"/>
       <c r="CB1" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="CC1" s="3"/>
       <c r="CD1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="CE1" s="3"/>
       <c r="CF1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="CG1" s="3"/>
+      <c r="CH1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="CG1" s="3"/>
-      <c r="CH1" s="8"/>
-      <c r="CI1" s="2" t="s">
+      <c r="CI1" s="3"/>
+      <c r="CJ1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="CK1" s="3"/>
+      <c r="CL1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="CM1" s="3"/>
+      <c r="CN1" s="8"/>
+      <c r="CO1" s="2" t="s">
         <v>62</v>
-      </c>
-      <c r="CJ1" s="3"/>
-      <c r="CK1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="CL1" s="3"/>
-      <c r="CM1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="CN1" s="3"/>
-      <c r="CO1" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="CP1" s="3"/>
       <c r="CQ1" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="CR1" s="3"/>
       <c r="CS1" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="CT1" s="3"/>
       <c r="CU1" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="CV1" s="3"/>
       <c r="CW1" s="2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="CX1" s="3"/>
       <c r="CY1" s="2" t="s">
-        <v>100</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="CZ1" s="3"/>
       <c r="DA1" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="DB1" s="3"/>
       <c r="DC1" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="DD1" s="3"/>
       <c r="DE1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="DG1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="DH1" s="3"/>
+      <c r="DI1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="DJ1" s="3"/>
+      <c r="DK1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="DG1" s="2" t="s">
+      <c r="DM1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="DH1" s="2"/>
-      <c r="DI1" s="2" t="s">
+      <c r="DN1" s="2"/>
+      <c r="DO1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="DK1" s="3"/>
-      <c r="DL1" s="16" t="s">
+      <c r="DQ1" s="3"/>
+      <c r="DR1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="DM1" s="16"/>
-      <c r="DN1" s="4" t="s">
+      <c r="DS1" s="16"/>
+      <c r="DT1" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="DP1" s="4" t="s">
+      <c r="DV1" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:121" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:127" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>83</v>
       </c>
@@ -1460,72 +1467,74 @@
         <v>83</v>
       </c>
       <c r="AT2" s="9"/>
-      <c r="AU2" s="5" t="s">
+      <c r="AU2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW2" s="6"/>
+      <c r="AX2" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ2" s="6"/>
+      <c r="BA2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AV2" s="17" t="s">
+      <c r="BB2" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="AX2" s="9"/>
-      <c r="AY2" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="BA2" s="9"/>
-      <c r="BB2" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="BC2" s="6" t="s">
         <v>40</v>
       </c>
       <c r="BD2" s="9"/>
       <c r="BE2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="BF2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BF2" s="6"/>
-      <c r="BG2" s="5" t="s">
+      <c r="BG2" s="9"/>
+      <c r="BH2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="BI2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BH2" s="6"/>
-      <c r="BI2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BJ2" s="6"/>
+      <c r="BJ2" s="9"/>
       <c r="BK2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="BL2" s="6"/>
       <c r="BM2" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN2" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="BO2" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="BN2" s="6"/>
+      <c r="BO2" s="5" t="s">
         <v>40</v>
       </c>
       <c r="BP2" s="6"/>
       <c r="BQ2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="BR2" s="6"/>
+      <c r="BS2" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="BR2" s="7" t="s">
+      <c r="BT2" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="BU2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="BS2" s="6"/>
-      <c r="BT2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BU2" s="6"/>
-      <c r="BV2" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="BW2" s="6"/>
-      <c r="BX2" s="5" t="s">
+      <c r="BV2" s="6"/>
+      <c r="BW2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="BX2" s="7" t="s">
         <v>40</v>
       </c>
       <c r="BY2" s="6"/>
@@ -1534,89 +1543,101 @@
       </c>
       <c r="CA2" s="6"/>
       <c r="CB2" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="CC2" s="6"/>
       <c r="CD2" s="5" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="CE2" s="6"/>
       <c r="CF2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="CG2" s="6"/>
+      <c r="CH2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="CI2" s="6"/>
+      <c r="CJ2" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="CG2" s="6" t="s">
+      <c r="CK2" s="6"/>
+      <c r="CL2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="CM2" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="CH2" s="9"/>
-      <c r="CI2" s="5" t="s">
+      <c r="CN2" s="9"/>
+      <c r="CO2" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="CJ2" s="6"/>
-      <c r="CK2" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="CL2" s="6"/>
-      <c r="CM2" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="CN2" s="6"/>
-      <c r="CO2" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="CP2" s="6"/>
       <c r="CQ2" s="5" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="CR2" s="6"/>
       <c r="CS2" s="5" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="CT2" s="6"/>
       <c r="CU2" s="5" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="CV2" s="6"/>
       <c r="CW2" s="5" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="CX2" s="6"/>
       <c r="CY2" s="5" t="s">
-        <v>73</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="CZ2" s="6"/>
       <c r="DA2" s="5" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="DB2" s="6"/>
       <c r="DC2" s="5" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="DD2" s="6"/>
       <c r="DE2" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="DG2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="DH2" s="6"/>
+      <c r="DI2" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="DJ2" s="6"/>
+      <c r="DK2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="DG2" s="5" t="s">
+      <c r="DM2" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="DH2" s="5"/>
-      <c r="DI2" s="5" t="s">
+      <c r="DN2" s="5"/>
+      <c r="DO2" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="DJ2" s="7" t="s">
+      <c r="DP2" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="DK2" s="6"/>
-      <c r="DL2" s="17" t="s">
+      <c r="DQ2" s="6"/>
+      <c r="DR2" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="DM2" s="17"/>
-      <c r="DN2" s="7" t="s">
+      <c r="DS2" s="17"/>
+      <c r="DT2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="DP2" s="7" t="s">
+      <c r="DV2" s="7" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A3" s="10">
         <v>0</v>
       </c>
@@ -1674,7 +1695,7 @@
       <c r="S3" s="18">
         <v>0</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3">
         <v>0</v>
       </c>
       <c r="U3" s="11">
@@ -1704,7 +1725,7 @@
       <c r="AC3" s="10">
         <v>0</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="14">
         <v>0</v>
       </c>
       <c r="AE3" s="11">
@@ -1758,64 +1779,64 @@
       <c r="AU3" s="10">
         <v>0</v>
       </c>
-      <c r="AV3" s="18">
-        <v>0</v>
-      </c>
-      <c r="AW3" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX3" s="11">
+      <c r="AV3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="11">
+        <v>17</v>
+      </c>
+      <c r="AX3" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY3" s="14">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="11">
+        <v>17</v>
+      </c>
+      <c r="BA3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB3" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD3" s="11">
         <v>20</v>
       </c>
-      <c r="AY3" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA3" s="11">
+      <c r="BE3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF3" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG3" s="11">
         <v>17</v>
       </c>
-      <c r="BB3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC3" s="14">
-        <v>0</v>
-      </c>
-      <c r="BD3" s="11">
+      <c r="BH3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BI3" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ3" s="11">
         <v>12</v>
       </c>
-      <c r="BE3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BF3" s="11">
+      <c r="BK3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BL3" s="11">
         <v>18</v>
       </c>
-      <c r="BG3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BH3" s="11">
+      <c r="BM3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="11">
         <v>14</v>
       </c>
-      <c r="BI3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BJ3" s="11">
-        <v>16</v>
-      </c>
-      <c r="BK3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BL3" s="11">
-        <v>14</v>
-      </c>
-      <c r="BM3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN3">
-        <v>0</v>
-      </c>
-      <c r="BO3" s="11">
+      <c r="BO3" s="10">
         <v>0</v>
       </c>
       <c r="BP3" s="11">
@@ -1824,70 +1845,70 @@
       <c r="BQ3" s="10">
         <v>0</v>
       </c>
-      <c r="BR3">
-        <v>0</v>
-      </c>
-      <c r="BS3" s="11">
+      <c r="BR3" s="11">
+        <v>14</v>
+      </c>
+      <c r="BS3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT3">
+        <v>0</v>
+      </c>
+      <c r="BU3" s="11">
+        <v>0</v>
+      </c>
+      <c r="BV3" s="11">
+        <v>16</v>
+      </c>
+      <c r="BW3" s="10">
+        <v>0</v>
+      </c>
+      <c r="BX3">
+        <v>0</v>
+      </c>
+      <c r="BY3" s="11">
         <v>13</v>
       </c>
-      <c r="BT3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BU3" s="11">
+      <c r="BZ3" s="10">
+        <v>0</v>
+      </c>
+      <c r="CA3" s="11">
         <v>16</v>
       </c>
-      <c r="BV3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BW3" s="11">
+      <c r="CB3" s="10">
+        <v>0</v>
+      </c>
+      <c r="CC3" s="11">
         <v>16</v>
       </c>
-      <c r="BX3" s="10">
-        <v>0</v>
-      </c>
-      <c r="BY3" s="11">
+      <c r="CD3" s="10">
+        <v>0</v>
+      </c>
+      <c r="CE3" s="11">
         <v>20</v>
       </c>
-      <c r="BZ3" s="10">
-        <v>0</v>
-      </c>
-      <c r="CA3" s="11">
+      <c r="CF3" s="10">
+        <v>0</v>
+      </c>
+      <c r="CG3" s="11">
         <v>20</v>
       </c>
-      <c r="CB3" s="10">
-        <v>0</v>
-      </c>
-      <c r="CC3" s="11">
+      <c r="CH3" s="10">
+        <v>0</v>
+      </c>
+      <c r="CI3" s="11">
         <v>14</v>
       </c>
-      <c r="CD3" s="10">
-        <v>0</v>
-      </c>
-      <c r="CE3" s="11">
+      <c r="CJ3" s="10">
+        <v>0</v>
+      </c>
+      <c r="CK3" s="11">
         <v>10</v>
       </c>
-      <c r="CF3" s="10">
-        <v>0</v>
-      </c>
-      <c r="CG3" s="14">
-        <v>0</v>
-      </c>
-      <c r="CH3" s="11">
-        <v>16</v>
-      </c>
-      <c r="CI3" s="10">
-        <v>0</v>
-      </c>
-      <c r="CJ3" s="11">
-        <v>13</v>
-      </c>
-      <c r="CK3" s="10">
-        <v>0</v>
-      </c>
-      <c r="CL3" s="11">
-        <v>10</v>
-      </c>
-      <c r="CM3" s="10">
+      <c r="CL3" s="10">
+        <v>0</v>
+      </c>
+      <c r="CM3" s="14">
         <v>0</v>
       </c>
       <c r="CN3" s="11">
@@ -1897,91 +1918,109 @@
         <v>0</v>
       </c>
       <c r="CP3" s="11">
+        <v>13</v>
+      </c>
+      <c r="CQ3" s="10">
+        <v>0</v>
+      </c>
+      <c r="CR3" s="11">
+        <v>10</v>
+      </c>
+      <c r="CS3" s="10">
+        <v>0</v>
+      </c>
+      <c r="CT3" s="11">
         <v>16</v>
       </c>
-      <c r="CQ3" s="10">
-        <v>0</v>
-      </c>
-      <c r="CR3" s="11">
+      <c r="CU3" s="10">
+        <v>0</v>
+      </c>
+      <c r="CV3" s="11">
+        <v>16</v>
+      </c>
+      <c r="CW3" s="10">
+        <v>0</v>
+      </c>
+      <c r="CX3" s="11">
         <v>13</v>
       </c>
-      <c r="CS3" s="10">
-        <v>0</v>
-      </c>
-      <c r="CT3" s="11">
+      <c r="CY3" s="10">
+        <v>0</v>
+      </c>
+      <c r="CZ3" s="11">
         <v>15</v>
       </c>
-      <c r="CU3" s="10">
-        <v>0</v>
-      </c>
-      <c r="CV3" s="11">
+      <c r="DA3" s="10">
+        <v>0</v>
+      </c>
+      <c r="DB3" s="11">
         <v>19</v>
       </c>
-      <c r="CW3" s="10">
-        <v>0</v>
-      </c>
-      <c r="CX3" s="11">
+      <c r="DC3" s="10">
+        <v>0</v>
+      </c>
+      <c r="DD3" s="11">
         <v>14</v>
       </c>
-      <c r="CY3" s="21">
-        <v>0</v>
-      </c>
-      <c r="CZ3" s="11">
+      <c r="DE3" s="21">
+        <v>0</v>
+      </c>
+      <c r="DF3" s="11">
         <v>0.83321624759823809</v>
       </c>
-      <c r="DA3" s="10">
-        <v>0</v>
-      </c>
-      <c r="DB3" s="11">
+      <c r="DG3" s="10">
+        <v>0</v>
+      </c>
+      <c r="DH3" s="11">
         <v>1.5097993602399939E-2</v>
       </c>
-      <c r="DC3" s="10">
-        <v>0</v>
-      </c>
-      <c r="DD3" s="11">
+      <c r="DI3" s="10">
+        <v>0</v>
+      </c>
+      <c r="DJ3" s="11">
         <v>0.76909021854371851</v>
       </c>
-      <c r="DE3" s="21">
-        <v>0</v>
-      </c>
-      <c r="DF3" s="11">
+      <c r="DK3" s="21">
+        <v>0</v>
+      </c>
+      <c r="DL3" s="11">
         <v>0.19499815880232108</v>
       </c>
-      <c r="DG3" s="13">
-        <v>0</v>
-      </c>
-      <c r="DH3" s="11">
+      <c r="DM3" s="13">
+        <v>0</v>
+      </c>
+      <c r="DN3" s="11">
         <v>0.23491835137099393</v>
       </c>
-      <c r="DI3" s="10">
-        <v>0</v>
-      </c>
-      <c r="DJ3">
-        <v>0</v>
-      </c>
-      <c r="DK3" s="11">
+      <c r="DO3" s="10">
+        <v>0</v>
+      </c>
+      <c r="DP3">
+        <v>0</v>
+      </c>
+      <c r="DQ3" s="11">
         <v>13</v>
       </c>
-      <c r="DL3" s="1">
-        <v>0</v>
-      </c>
-      <c r="DM3" s="1">
-        <v>1</v>
-      </c>
-      <c r="DN3" s="22">
-        <v>0</v>
-      </c>
-      <c r="DO3" s="22">
+      <c r="DR3" s="1">
+        <v>0</v>
+      </c>
+      <c r="DS3" s="1">
+        <v>1</v>
+      </c>
+      <c r="DT3" s="22">
+        <v>0</v>
+      </c>
+      <c r="DU3" s="22">
         <v>3</v>
       </c>
-      <c r="DP3" s="22">
-        <v>0</v>
-      </c>
-      <c r="DQ3" s="22">
+      <c r="DV3" s="22">
+        <v>0</v>
+      </c>
+      <c r="DW3" s="22">
         <v>0.7</v>
       </c>
     </row>
-    <row r="4" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>0</v>
       </c>
@@ -1992,7 +2031,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="11">
         <v>16</v>
@@ -2004,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="11">
         <v>25</v>
@@ -2016,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="11">
         <v>20</v>
@@ -2028,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q4" s="11">
         <v>24</v>
@@ -2039,8 +2078,8 @@
       <c r="S4" s="18">
         <v>0</v>
       </c>
-      <c r="T4" s="14">
-        <v>0</v>
+      <c r="T4">
+        <v>1</v>
       </c>
       <c r="U4" s="11">
         <v>28</v>
@@ -2052,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" s="11">
         <v>24</v>
@@ -2061,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="AA4" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB4" s="11">
         <v>20</v>
@@ -2069,8 +2108,8 @@
       <c r="AC4" s="10">
         <v>0</v>
       </c>
-      <c r="AD4">
-        <v>0</v>
+      <c r="AD4" s="14">
+        <v>1</v>
       </c>
       <c r="AE4" s="11">
         <v>11</v>
@@ -2123,91 +2162,91 @@
       <c r="AU4" s="10">
         <v>0</v>
       </c>
-      <c r="AV4" s="18">
-        <v>0</v>
-      </c>
-      <c r="AW4" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="11">
+      <c r="AV4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="11">
+        <v>11</v>
+      </c>
+      <c r="AX4" s="10">
+        <v>0</v>
+      </c>
+      <c r="AY4" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ4" s="11">
+        <v>11</v>
+      </c>
+      <c r="BA4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB4" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="11">
         <v>15</v>
       </c>
-      <c r="AY4" s="10">
-        <v>0</v>
-      </c>
-      <c r="AZ4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BA4" s="11">
+      <c r="BE4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BF4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BG4" s="11">
         <v>12</v>
       </c>
-      <c r="BB4" s="10">
-        <v>0</v>
-      </c>
-      <c r="BC4" s="14">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="11">
+      <c r="BH4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BI4" s="14">
+        <v>1</v>
+      </c>
+      <c r="BJ4" s="11">
         <v>20</v>
       </c>
-      <c r="BE4" s="10">
-        <v>1</v>
-      </c>
-      <c r="BF4" s="11">
+      <c r="BK4" s="10">
+        <v>1</v>
+      </c>
+      <c r="BL4" s="11">
         <v>13</v>
       </c>
-      <c r="BG4" s="10">
-        <v>1</v>
-      </c>
-      <c r="BH4" s="11">
+      <c r="BM4" s="10">
+        <v>1</v>
+      </c>
+      <c r="BN4" s="11">
         <v>18</v>
       </c>
-      <c r="BI4" s="10">
-        <v>1</v>
-      </c>
-      <c r="BJ4" s="11">
+      <c r="BO4" s="10">
+        <v>1</v>
+      </c>
+      <c r="BP4" s="11">
         <v>17</v>
       </c>
-      <c r="BK4" s="10">
-        <v>1</v>
-      </c>
-      <c r="BL4" s="11">
+      <c r="BQ4" s="10">
+        <v>1</v>
+      </c>
+      <c r="BR4" s="11">
         <v>15</v>
       </c>
-      <c r="BM4" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4" s="11">
-        <v>1</v>
-      </c>
-      <c r="BP4" s="11">
+      <c r="BS4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BU4" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV4" s="11">
         <v>11</v>
       </c>
-      <c r="BQ4" s="10">
-        <v>0</v>
-      </c>
-      <c r="BR4">
-        <v>1</v>
-      </c>
-      <c r="BS4" s="11">
-        <v>13</v>
-      </c>
-      <c r="BT4" s="10">
-        <v>1</v>
-      </c>
-      <c r="BU4" s="11">
-        <v>19</v>
-      </c>
-      <c r="BV4" s="10">
-        <v>1</v>
-      </c>
-      <c r="BW4" s="11">
-        <v>14</v>
-      </c>
-      <c r="BX4" s="10">
+      <c r="BW4" s="10">
+        <v>0</v>
+      </c>
+      <c r="BX4">
         <v>1</v>
       </c>
       <c r="BY4" s="11">
@@ -2217,7 +2256,7 @@
         <v>1</v>
       </c>
       <c r="CA4" s="11">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="CB4" s="10">
         <v>1</v>
@@ -2229,30 +2268,30 @@
         <v>1</v>
       </c>
       <c r="CE4" s="11">
+        <v>13</v>
+      </c>
+      <c r="CF4" s="10">
+        <v>1</v>
+      </c>
+      <c r="CG4" s="11">
         <v>20</v>
       </c>
-      <c r="CF4" s="10">
-        <v>0</v>
-      </c>
-      <c r="CG4" s="14">
-        <v>1</v>
-      </c>
-      <c r="CH4" s="11">
-        <v>11</v>
-      </c>
-      <c r="CI4" s="10">
-        <v>1</v>
-      </c>
-      <c r="CJ4" s="11">
-        <v>10</v>
-      </c>
-      <c r="CK4" s="10">
-        <v>1</v>
-      </c>
-      <c r="CL4" s="11">
-        <v>13</v>
-      </c>
-      <c r="CM4" s="10">
+      <c r="CH4" s="10">
+        <v>1</v>
+      </c>
+      <c r="CI4" s="11">
+        <v>14</v>
+      </c>
+      <c r="CJ4" s="10">
+        <v>1</v>
+      </c>
+      <c r="CK4" s="11">
+        <v>20</v>
+      </c>
+      <c r="CL4" s="10">
+        <v>0</v>
+      </c>
+      <c r="CM4" s="14">
         <v>1</v>
       </c>
       <c r="CN4" s="11">
@@ -2262,72 +2301,90 @@
         <v>1</v>
       </c>
       <c r="CP4" s="11">
+        <v>10</v>
+      </c>
+      <c r="CQ4" s="10">
+        <v>1</v>
+      </c>
+      <c r="CR4" s="11">
+        <v>13</v>
+      </c>
+      <c r="CS4" s="10">
+        <v>1</v>
+      </c>
+      <c r="CT4" s="11">
+        <v>11</v>
+      </c>
+      <c r="CU4" s="10">
+        <v>1</v>
+      </c>
+      <c r="CV4" s="11">
         <v>17</v>
       </c>
-      <c r="CQ4" s="10">
-        <v>1</v>
-      </c>
-      <c r="CR4" s="11">
+      <c r="CW4" s="10">
+        <v>1</v>
+      </c>
+      <c r="CX4" s="11">
         <v>14</v>
       </c>
-      <c r="CS4" s="10">
-        <v>1</v>
-      </c>
-      <c r="CT4" s="11">
+      <c r="CY4" s="10">
+        <v>1</v>
+      </c>
+      <c r="CZ4" s="11">
         <v>14</v>
       </c>
-      <c r="CU4" s="10">
-        <v>1</v>
-      </c>
-      <c r="CV4" s="11">
+      <c r="DA4" s="10">
+        <v>1</v>
+      </c>
+      <c r="DB4" s="11">
         <v>11</v>
       </c>
-      <c r="CW4" s="10">
-        <v>1</v>
-      </c>
-      <c r="CX4" s="11">
+      <c r="DC4" s="10">
+        <v>1</v>
+      </c>
+      <c r="DD4" s="11">
         <v>17</v>
       </c>
-      <c r="CZ4" s="10"/>
-      <c r="DA4" s="10">
-        <v>1</v>
-      </c>
-      <c r="DB4" s="11">
+      <c r="DF4" s="10"/>
+      <c r="DG4" s="10">
+        <v>1</v>
+      </c>
+      <c r="DH4" s="11">
         <v>0.24120908188913781</v>
       </c>
-      <c r="DC4" s="10">
-        <v>1</v>
-      </c>
-      <c r="DD4" s="11">
+      <c r="DI4" s="10">
+        <v>1</v>
+      </c>
+      <c r="DJ4" s="11">
         <v>0.18093167816270983</v>
       </c>
-      <c r="DE4" s="11"/>
-      <c r="DF4" s="10"/>
-      <c r="DG4" s="10"/>
-      <c r="DH4" s="10"/>
-      <c r="DI4" s="10">
-        <v>0</v>
-      </c>
-      <c r="DJ4">
-        <v>1</v>
-      </c>
-      <c r="DK4" s="11">
+      <c r="DK4" s="11"/>
+      <c r="DL4" s="10"/>
+      <c r="DM4" s="10"/>
+      <c r="DN4" s="10"/>
+      <c r="DO4" s="10">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>1</v>
+      </c>
+      <c r="DQ4" s="11">
         <v>10</v>
       </c>
-      <c r="DL4" s="21">
-        <v>1</v>
-      </c>
-      <c r="DM4" s="21">
+      <c r="DR4" s="21">
+        <v>1</v>
+      </c>
+      <c r="DS4" s="21">
         <v>2</v>
       </c>
-      <c r="DN4" s="21">
-        <v>1</v>
-      </c>
-      <c r="DO4" s="21">
+      <c r="DT4" s="21">
+        <v>1</v>
+      </c>
+      <c r="DU4" s="21">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>0</v>
       </c>
@@ -2335,7 +2392,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="18">
         <v>0</v>
@@ -2347,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -2359,7 +2416,7 @@
         <v>0</v>
       </c>
       <c r="K5" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -2371,7 +2428,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P5">
         <v>0</v>
@@ -2383,9 +2440,9 @@
         <v>0</v>
       </c>
       <c r="S5" s="18">
-        <v>0</v>
-      </c>
-      <c r="T5" s="14">
+        <v>1</v>
+      </c>
+      <c r="T5">
         <v>0</v>
       </c>
       <c r="U5" s="11">
@@ -2395,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X5">
         <v>0</v>
@@ -2404,7 +2461,7 @@
         <v>28</v>
       </c>
       <c r="Z5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA5" s="14">
         <v>0</v>
@@ -2413,9 +2470,9 @@
         <v>20</v>
       </c>
       <c r="AC5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="14">
         <v>0</v>
       </c>
       <c r="AE5" s="11">
@@ -2467,91 +2524,103 @@
         <v>14</v>
       </c>
       <c r="AU5" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV5" s="18">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX5" s="11">
+        <v>1</v>
+      </c>
+      <c r="AV5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="11">
         <v>14</v>
       </c>
-      <c r="AY5" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ5" s="14">
-        <v>0</v>
-      </c>
-      <c r="BA5" s="11">
+      <c r="AX5" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="11">
+        <v>14</v>
+      </c>
+      <c r="BA5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="18">
+        <v>1</v>
+      </c>
+      <c r="BC5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="11">
+        <v>14</v>
+      </c>
+      <c r="BE5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BF5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="11">
         <v>12</v>
       </c>
-      <c r="BB5" s="10">
-        <v>1</v>
-      </c>
-      <c r="BC5" s="14">
-        <v>0</v>
-      </c>
-      <c r="BD5" s="11">
+      <c r="BH5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BI5" s="14">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="11">
         <v>11</v>
       </c>
-      <c r="BE5" s="10"/>
-      <c r="BF5" s="11"/>
-      <c r="BG5" s="10"/>
-      <c r="BH5" s="11"/>
-      <c r="BI5" s="10"/>
-      <c r="BJ5" s="11"/>
       <c r="BK5" s="10"/>
       <c r="BL5" s="11"/>
-      <c r="BM5" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN5">
-        <v>1</v>
-      </c>
-      <c r="BO5" s="11">
-        <v>0</v>
-      </c>
-      <c r="BP5" s="11">
+      <c r="BM5" s="10"/>
+      <c r="BN5" s="11"/>
+      <c r="BO5" s="10"/>
+      <c r="BP5" s="11"/>
+      <c r="BQ5" s="10"/>
+      <c r="BR5" s="11"/>
+      <c r="BS5" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT5">
+        <v>1</v>
+      </c>
+      <c r="BU5" s="11">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="11">
         <v>17</v>
       </c>
-      <c r="BQ5" s="10">
-        <v>1</v>
-      </c>
-      <c r="BR5">
-        <v>0</v>
-      </c>
-      <c r="BS5" s="11">
+      <c r="BW5" s="10">
+        <v>1</v>
+      </c>
+      <c r="BX5">
+        <v>0</v>
+      </c>
+      <c r="BY5" s="11">
         <v>11</v>
       </c>
-      <c r="BT5" s="10"/>
-      <c r="BU5" s="11"/>
-      <c r="BV5" s="10"/>
-      <c r="BW5" s="11"/>
-      <c r="BX5" s="10"/>
-      <c r="BY5" s="11"/>
       <c r="BZ5" s="10"/>
       <c r="CA5" s="11"/>
       <c r="CB5" s="10"/>
       <c r="CC5" s="11"/>
       <c r="CD5" s="10"/>
       <c r="CE5" s="11"/>
-      <c r="CF5" s="10">
-        <v>1</v>
-      </c>
-      <c r="CG5" s="14">
-        <v>0</v>
-      </c>
-      <c r="CH5" s="11">
+      <c r="CF5" s="10"/>
+      <c r="CG5" s="11"/>
+      <c r="CH5" s="10"/>
+      <c r="CI5" s="11"/>
+      <c r="CJ5" s="10"/>
+      <c r="CK5" s="11"/>
+      <c r="CL5" s="10">
+        <v>1</v>
+      </c>
+      <c r="CM5" s="14">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="11">
         <v>10</v>
       </c>
-      <c r="CI5" s="10"/>
-      <c r="CJ5" s="11"/>
-      <c r="CK5" s="10"/>
-      <c r="CL5" s="11"/>
-      <c r="CM5" s="10"/>
-      <c r="CN5" s="11"/>
       <c r="CO5" s="10"/>
       <c r="CP5" s="11"/>
       <c r="CQ5" s="10"/>
@@ -2562,38 +2631,44 @@
       <c r="CV5" s="11"/>
       <c r="CW5" s="10"/>
       <c r="CX5" s="11"/>
-      <c r="CZ5" s="10"/>
+      <c r="CY5" s="10"/>
+      <c r="CZ5" s="11"/>
       <c r="DA5" s="10"/>
       <c r="DB5" s="11"/>
       <c r="DC5" s="10"/>
       <c r="DD5" s="11"/>
-      <c r="DE5" s="11"/>
       <c r="DF5" s="10"/>
       <c r="DG5" s="10"/>
-      <c r="DH5" s="10"/>
-      <c r="DI5" s="10">
-        <v>1</v>
-      </c>
-      <c r="DJ5">
-        <v>0</v>
-      </c>
-      <c r="DK5" s="11">
+      <c r="DH5" s="11"/>
+      <c r="DI5" s="10"/>
+      <c r="DJ5" s="11"/>
+      <c r="DK5" s="11"/>
+      <c r="DL5" s="10"/>
+      <c r="DM5" s="10"/>
+      <c r="DN5" s="10"/>
+      <c r="DO5" s="10">
+        <v>1</v>
+      </c>
+      <c r="DP5">
+        <v>0</v>
+      </c>
+      <c r="DQ5" s="11">
         <v>12</v>
       </c>
-      <c r="DL5" s="21">
+      <c r="DR5" s="21">
         <v>2</v>
       </c>
-      <c r="DM5" s="21">
+      <c r="DS5" s="21">
         <v>3</v>
       </c>
-      <c r="DN5" s="21">
+      <c r="DT5" s="21">
         <v>2</v>
       </c>
-      <c r="DO5" s="21">
+      <c r="DU5" s="21">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A6" s="10">
         <v>0</v>
       </c>
@@ -2601,10 +2676,10 @@
         <v>0</v>
       </c>
       <c r="C6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="11">
         <v>13</v>
@@ -2613,10 +2688,10 @@
         <v>0</v>
       </c>
       <c r="G6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" s="11">
         <v>27</v>
@@ -2625,10 +2700,10 @@
         <v>0</v>
       </c>
       <c r="K6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="11">
         <v>29</v>
@@ -2637,10 +2712,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="11">
         <v>25</v>
@@ -2649,10 +2724,10 @@
         <v>0</v>
       </c>
       <c r="S6" s="18">
-        <v>0</v>
-      </c>
-      <c r="T6" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T6">
+        <v>1</v>
       </c>
       <c r="U6" s="11">
         <v>29</v>
@@ -2661,28 +2736,28 @@
         <v>0</v>
       </c>
       <c r="W6" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="11">
         <v>29</v>
       </c>
       <c r="Z6" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="11">
         <v>10</v>
       </c>
       <c r="AC6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="AD6" s="14">
+        <v>1</v>
       </c>
       <c r="AE6" s="11">
         <v>20</v>
@@ -2733,91 +2808,103 @@
         <v>13</v>
       </c>
       <c r="AU6" s="10">
-        <v>0</v>
-      </c>
-      <c r="AV6" s="18">
-        <v>1</v>
-      </c>
-      <c r="AW6" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="11">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="11">
+        <v>13</v>
+      </c>
+      <c r="AX6" s="10">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="14">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="11">
+        <v>13</v>
+      </c>
+      <c r="BA6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BB6" s="18">
+        <v>1</v>
+      </c>
+      <c r="BC6" s="14">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="11">
         <v>19</v>
       </c>
-      <c r="AY6" s="10">
-        <v>1</v>
-      </c>
-      <c r="AZ6" s="14">
-        <v>1</v>
-      </c>
-      <c r="BA6" s="11">
+      <c r="BE6" s="10">
+        <v>1</v>
+      </c>
+      <c r="BF6" s="14">
+        <v>1</v>
+      </c>
+      <c r="BG6" s="11">
         <v>12</v>
       </c>
-      <c r="BB6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BC6" s="14">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="11">
+      <c r="BH6" s="10">
+        <v>1</v>
+      </c>
+      <c r="BI6" s="14">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="11">
         <v>11</v>
       </c>
-      <c r="BE6" s="10"/>
-      <c r="BF6" s="11"/>
-      <c r="BG6" s="10"/>
-      <c r="BH6" s="11"/>
-      <c r="BI6" s="10"/>
-      <c r="BJ6" s="11"/>
       <c r="BK6" s="10"/>
       <c r="BL6" s="11"/>
-      <c r="BM6" s="10">
-        <v>0</v>
-      </c>
-      <c r="BN6">
-        <v>1</v>
-      </c>
-      <c r="BO6" s="11">
-        <v>1</v>
-      </c>
-      <c r="BP6" s="11">
+      <c r="BM6" s="10"/>
+      <c r="BN6" s="11"/>
+      <c r="BO6" s="10"/>
+      <c r="BP6" s="11"/>
+      <c r="BQ6" s="10"/>
+      <c r="BR6" s="11"/>
+      <c r="BS6" s="10">
+        <v>0</v>
+      </c>
+      <c r="BT6">
+        <v>1</v>
+      </c>
+      <c r="BU6" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="11">
         <v>16</v>
       </c>
-      <c r="BQ6" s="10">
-        <v>1</v>
-      </c>
-      <c r="BR6">
-        <v>1</v>
-      </c>
-      <c r="BS6" s="11">
+      <c r="BW6" s="10">
+        <v>1</v>
+      </c>
+      <c r="BX6">
+        <v>1</v>
+      </c>
+      <c r="BY6" s="11">
         <v>10</v>
       </c>
-      <c r="BT6" s="10"/>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="10"/>
-      <c r="BW6" s="11"/>
-      <c r="BX6" s="10"/>
-      <c r="BY6" s="11"/>
       <c r="BZ6" s="10"/>
       <c r="CA6" s="11"/>
       <c r="CB6" s="10"/>
       <c r="CC6" s="11"/>
       <c r="CD6" s="10"/>
       <c r="CE6" s="11"/>
-      <c r="CF6" s="10">
-        <v>1</v>
-      </c>
-      <c r="CG6" s="14">
-        <v>1</v>
-      </c>
-      <c r="CH6" s="11">
+      <c r="CF6" s="10"/>
+      <c r="CG6" s="11"/>
+      <c r="CH6" s="10"/>
+      <c r="CI6" s="11"/>
+      <c r="CJ6" s="10"/>
+      <c r="CK6" s="11"/>
+      <c r="CL6" s="10">
+        <v>1</v>
+      </c>
+      <c r="CM6" s="14">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="11">
         <v>16</v>
       </c>
-      <c r="CI6" s="10"/>
-      <c r="CJ6" s="11"/>
-      <c r="CK6" s="10"/>
-      <c r="CL6" s="11"/>
-      <c r="CM6" s="10"/>
-      <c r="CN6" s="11"/>
       <c r="CO6" s="10"/>
       <c r="CP6" s="11"/>
       <c r="CQ6" s="10"/>
@@ -2828,43 +2915,49 @@
       <c r="CV6" s="11"/>
       <c r="CW6" s="10"/>
       <c r="CX6" s="11"/>
-      <c r="CZ6" s="10"/>
+      <c r="CY6" s="10"/>
+      <c r="CZ6" s="11"/>
       <c r="DA6" s="10"/>
       <c r="DB6" s="11"/>
       <c r="DC6" s="10"/>
       <c r="DD6" s="11"/>
-      <c r="DE6" s="11"/>
       <c r="DF6" s="10"/>
       <c r="DG6" s="10"/>
-      <c r="DH6" s="10"/>
-      <c r="DI6" s="10">
-        <v>1</v>
-      </c>
-      <c r="DJ6">
-        <v>1</v>
-      </c>
-      <c r="DK6" s="11">
+      <c r="DH6" s="11"/>
+      <c r="DI6" s="10"/>
+      <c r="DJ6" s="11"/>
+      <c r="DK6" s="11"/>
+      <c r="DL6" s="10"/>
+      <c r="DM6" s="10"/>
+      <c r="DN6" s="10"/>
+      <c r="DO6" s="10">
+        <v>1</v>
+      </c>
+      <c r="DP6">
+        <v>1</v>
+      </c>
+      <c r="DQ6" s="11">
         <v>18</v>
       </c>
-      <c r="DL6" s="21">
+      <c r="DR6" s="21">
         <v>3</v>
       </c>
-      <c r="DM6" s="21">
+      <c r="DS6" s="21">
         <v>4</v>
       </c>
-      <c r="DN6" s="21">
+      <c r="DT6" s="21">
         <v>3</v>
       </c>
-      <c r="DO6" s="21">
+      <c r="DU6" s="21">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:121" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>0</v>
       </c>
       <c r="B7" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" s="18">
         <v>0</v>
@@ -2876,7 +2969,7 @@
         <v>19</v>
       </c>
       <c r="F7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" s="18">
         <v>0</v>
@@ -2888,7 +2981,7 @@
         <v>30</v>
       </c>
       <c r="J7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="18">
         <v>0</v>
@@ -2900,7 +2993,7 @@
         <v>28</v>
       </c>
       <c r="N7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="18">
         <v>0</v>
@@ -2912,19 +3005,19 @@
         <v>30</v>
       </c>
       <c r="R7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S7" s="18">
         <v>0</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7">
         <v>0</v>
       </c>
       <c r="U7" s="11">
         <v>27</v>
       </c>
       <c r="V7" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" s="18">
         <v>0</v>
@@ -2955,51 +3048,51 @@
       <c r="AR7" s="10"/>
       <c r="AS7" s="11"/>
       <c r="AT7" s="12"/>
-      <c r="AU7" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="18">
-        <v>0</v>
-      </c>
-      <c r="AW7" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="11">
+      <c r="AU7" s="11"/>
+      <c r="AV7" s="11"/>
+      <c r="AW7" s="11"/>
+      <c r="AX7" s="11"/>
+      <c r="AY7" s="11"/>
+      <c r="AZ7" s="11"/>
+      <c r="BA7" s="10">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD7" s="11">
         <v>17</v>
       </c>
-      <c r="AY7" s="10"/>
-      <c r="AZ7" s="11"/>
-      <c r="BA7" s="12"/>
-      <c r="BB7" s="10"/>
-      <c r="BC7" s="11"/>
-      <c r="BD7" s="12"/>
       <c r="BE7" s="10"/>
       <c r="BF7" s="11"/>
-      <c r="BG7" s="10"/>
-      <c r="BH7" s="11"/>
-      <c r="BI7" s="10"/>
-      <c r="BJ7" s="11"/>
+      <c r="BG7" s="12"/>
+      <c r="BH7" s="10"/>
+      <c r="BI7" s="11"/>
+      <c r="BJ7" s="12"/>
       <c r="BK7" s="10"/>
       <c r="BL7" s="11"/>
-      <c r="BM7" s="10">
-        <v>1</v>
-      </c>
-      <c r="BN7">
-        <v>0</v>
-      </c>
-      <c r="BO7" s="11">
-        <v>0</v>
-      </c>
-      <c r="BP7" s="11">
+      <c r="BM7" s="10"/>
+      <c r="BN7" s="11"/>
+      <c r="BO7" s="10"/>
+      <c r="BP7" s="11"/>
+      <c r="BQ7" s="10"/>
+      <c r="BR7" s="11"/>
+      <c r="BS7" s="10">
+        <v>1</v>
+      </c>
+      <c r="BT7">
+        <v>0</v>
+      </c>
+      <c r="BU7" s="11">
+        <v>0</v>
+      </c>
+      <c r="BV7" s="11">
         <v>20</v>
       </c>
-      <c r="BQ7" s="10"/>
-      <c r="BS7" s="11"/>
-      <c r="BT7" s="10"/>
-      <c r="BU7" s="11"/>
-      <c r="BV7" s="10"/>
-      <c r="BW7" s="11"/>
-      <c r="BX7" s="10"/>
+      <c r="BW7" s="10"/>
       <c r="BY7" s="11"/>
       <c r="BZ7" s="10"/>
       <c r="CA7" s="11"/>
@@ -3009,13 +3102,13 @@
       <c r="CE7" s="11"/>
       <c r="CF7" s="10"/>
       <c r="CG7" s="11"/>
-      <c r="CH7" s="12"/>
-      <c r="CI7" s="10"/>
-      <c r="CJ7" s="11"/>
-      <c r="CK7" s="10"/>
-      <c r="CL7" s="11"/>
-      <c r="CM7" s="10"/>
-      <c r="CN7" s="11"/>
+      <c r="CH7" s="10"/>
+      <c r="CI7" s="11"/>
+      <c r="CJ7" s="10"/>
+      <c r="CK7" s="11"/>
+      <c r="CL7" s="10"/>
+      <c r="CM7" s="11"/>
+      <c r="CN7" s="12"/>
       <c r="CO7" s="10"/>
       <c r="CP7" s="11"/>
       <c r="CQ7" s="10"/>
@@ -3026,90 +3119,96 @@
       <c r="CV7" s="11"/>
       <c r="CW7" s="10"/>
       <c r="CX7" s="11"/>
-      <c r="CZ7" s="10"/>
+      <c r="CY7" s="10"/>
+      <c r="CZ7" s="11"/>
       <c r="DA7" s="10"/>
       <c r="DB7" s="11"/>
       <c r="DC7" s="10"/>
       <c r="DD7" s="11"/>
-      <c r="DE7" s="11"/>
       <c r="DF7" s="10"/>
       <c r="DG7" s="10"/>
-      <c r="DH7" s="10"/>
+      <c r="DH7" s="11"/>
       <c r="DI7" s="10"/>
+      <c r="DJ7" s="11"/>
       <c r="DK7" s="11"/>
-    </row>
-    <row r="8" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="DL7" s="10"/>
+      <c r="DM7" s="10"/>
+      <c r="DN7" s="10"/>
+      <c r="DO7" s="10"/>
+      <c r="DQ7" s="11"/>
+    </row>
+    <row r="8" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A8" s="10">
         <v>0</v>
       </c>
       <c r="B8" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" s="18">
         <v>0</v>
       </c>
       <c r="D8" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="11">
         <v>12</v>
       </c>
       <c r="F8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G8" s="18">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="11">
         <v>28</v>
       </c>
       <c r="J8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="18">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="11">
         <v>26</v>
       </c>
       <c r="N8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O8" s="18">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="11">
         <v>23</v>
       </c>
       <c r="R8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S8" s="18">
         <v>0</v>
       </c>
-      <c r="T8" s="14">
-        <v>0</v>
+      <c r="T8">
+        <v>1</v>
       </c>
       <c r="U8" s="11">
         <v>28</v>
       </c>
       <c r="V8" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="18">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" s="11">
         <v>27</v>
@@ -3134,51 +3233,51 @@
       <c r="AR8" s="10"/>
       <c r="AS8" s="11"/>
       <c r="AT8" s="12"/>
-      <c r="AU8" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="18">
-        <v>0</v>
-      </c>
-      <c r="AW8" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="11">
+      <c r="AU8" s="11"/>
+      <c r="AV8" s="11"/>
+      <c r="AW8" s="11"/>
+      <c r="AX8" s="11"/>
+      <c r="AY8" s="11"/>
+      <c r="AZ8" s="11"/>
+      <c r="BA8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="18">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="14">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="11">
         <v>19</v>
       </c>
-      <c r="AY8" s="10"/>
-      <c r="AZ8" s="11"/>
-      <c r="BA8" s="12"/>
-      <c r="BB8" s="10"/>
-      <c r="BC8" s="11"/>
-      <c r="BD8" s="12"/>
       <c r="BE8" s="10"/>
       <c r="BF8" s="11"/>
-      <c r="BG8" s="10"/>
-      <c r="BH8" s="11"/>
-      <c r="BI8" s="10"/>
-      <c r="BJ8" s="11"/>
+      <c r="BG8" s="12"/>
+      <c r="BH8" s="10"/>
+      <c r="BI8" s="11"/>
+      <c r="BJ8" s="12"/>
       <c r="BK8" s="10"/>
       <c r="BL8" s="11"/>
-      <c r="BM8" s="10">
-        <v>1</v>
-      </c>
-      <c r="BN8">
-        <v>0</v>
-      </c>
-      <c r="BO8" s="11">
-        <v>1</v>
-      </c>
-      <c r="BP8" s="11">
+      <c r="BM8" s="10"/>
+      <c r="BN8" s="11"/>
+      <c r="BO8" s="10"/>
+      <c r="BP8" s="11"/>
+      <c r="BQ8" s="10"/>
+      <c r="BR8" s="11"/>
+      <c r="BS8" s="10">
+        <v>1</v>
+      </c>
+      <c r="BT8">
+        <v>0</v>
+      </c>
+      <c r="BU8" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV8" s="11">
         <v>15</v>
       </c>
-      <c r="BQ8" s="10"/>
-      <c r="BS8" s="11"/>
-      <c r="BT8" s="10"/>
-      <c r="BU8" s="11"/>
-      <c r="BV8" s="10"/>
-      <c r="BW8" s="11"/>
-      <c r="BX8" s="10"/>
+      <c r="BW8" s="10"/>
       <c r="BY8" s="11"/>
       <c r="BZ8" s="10"/>
       <c r="CA8" s="11"/>
@@ -3188,13 +3287,13 @@
       <c r="CE8" s="11"/>
       <c r="CF8" s="10"/>
       <c r="CG8" s="11"/>
-      <c r="CH8" s="12"/>
-      <c r="CI8" s="10"/>
-      <c r="CJ8" s="11"/>
-      <c r="CK8" s="10"/>
-      <c r="CL8" s="11"/>
-      <c r="CM8" s="10"/>
-      <c r="CN8" s="11"/>
+      <c r="CH8" s="10"/>
+      <c r="CI8" s="11"/>
+      <c r="CJ8" s="10"/>
+      <c r="CK8" s="11"/>
+      <c r="CL8" s="10"/>
+      <c r="CM8" s="11"/>
+      <c r="CN8" s="12"/>
       <c r="CO8" s="10"/>
       <c r="CP8" s="11"/>
       <c r="CQ8" s="10"/>
@@ -3205,27 +3304,33 @@
       <c r="CV8" s="11"/>
       <c r="CW8" s="10"/>
       <c r="CX8" s="11"/>
-      <c r="CZ8" s="10"/>
+      <c r="CY8" s="10"/>
+      <c r="CZ8" s="11"/>
       <c r="DA8" s="10"/>
       <c r="DB8" s="11"/>
       <c r="DC8" s="10"/>
       <c r="DD8" s="11"/>
-      <c r="DE8" s="11"/>
       <c r="DF8" s="10"/>
       <c r="DG8" s="10"/>
-      <c r="DH8" s="10"/>
+      <c r="DH8" s="11"/>
       <c r="DI8" s="10"/>
+      <c r="DJ8" s="11"/>
       <c r="DK8" s="11"/>
-    </row>
-    <row r="9" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="DL8" s="10"/>
+      <c r="DM8" s="10"/>
+      <c r="DN8" s="10"/>
+      <c r="DO8" s="10"/>
+      <c r="DQ8" s="11"/>
+    </row>
+    <row r="9" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A9" s="10">
         <v>0</v>
       </c>
       <c r="B9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="18">
         <v>0</v>
@@ -3234,10 +3339,10 @@
         <v>11</v>
       </c>
       <c r="F9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -3246,10 +3351,10 @@
         <v>22</v>
       </c>
       <c r="J9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -3258,10 +3363,10 @@
         <v>30</v>
       </c>
       <c r="N9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -3270,22 +3375,22 @@
         <v>25</v>
       </c>
       <c r="R9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="18">
-        <v>0</v>
-      </c>
-      <c r="T9" s="14">
+        <v>1</v>
+      </c>
+      <c r="T9">
         <v>0</v>
       </c>
       <c r="U9" s="11">
         <v>26</v>
       </c>
       <c r="V9" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W9" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X9">
         <v>0</v>
@@ -3313,51 +3418,51 @@
       <c r="AR9" s="10"/>
       <c r="AS9" s="11"/>
       <c r="AT9" s="12"/>
-      <c r="AU9" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="18">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="14">
-        <v>0</v>
-      </c>
-      <c r="AX9" s="11">
+      <c r="AU9" s="11"/>
+      <c r="AV9" s="11"/>
+      <c r="AW9" s="11"/>
+      <c r="AX9" s="11"/>
+      <c r="AY9" s="11"/>
+      <c r="AZ9" s="11"/>
+      <c r="BA9" s="10">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="18">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="14">
+        <v>0</v>
+      </c>
+      <c r="BD9" s="11">
         <v>16</v>
       </c>
-      <c r="AY9" s="10"/>
-      <c r="AZ9" s="11"/>
-      <c r="BA9" s="12"/>
-      <c r="BB9" s="10"/>
-      <c r="BC9" s="11"/>
-      <c r="BD9" s="12"/>
       <c r="BE9" s="10"/>
       <c r="BF9" s="11"/>
-      <c r="BG9" s="10"/>
-      <c r="BH9" s="11"/>
-      <c r="BI9" s="10"/>
-      <c r="BJ9" s="11"/>
+      <c r="BG9" s="12"/>
+      <c r="BH9" s="10"/>
+      <c r="BI9" s="11"/>
+      <c r="BJ9" s="12"/>
       <c r="BK9" s="10"/>
       <c r="BL9" s="11"/>
-      <c r="BM9" s="10">
-        <v>1</v>
-      </c>
-      <c r="BN9">
-        <v>1</v>
-      </c>
-      <c r="BO9" s="11">
-        <v>0</v>
-      </c>
-      <c r="BP9" s="11">
+      <c r="BM9" s="10"/>
+      <c r="BN9" s="11"/>
+      <c r="BO9" s="10"/>
+      <c r="BP9" s="11"/>
+      <c r="BQ9" s="10"/>
+      <c r="BR9" s="11"/>
+      <c r="BS9" s="10">
+        <v>1</v>
+      </c>
+      <c r="BT9">
+        <v>1</v>
+      </c>
+      <c r="BU9" s="11">
+        <v>0</v>
+      </c>
+      <c r="BV9" s="11">
         <v>12</v>
       </c>
-      <c r="BQ9" s="10"/>
-      <c r="BS9" s="11"/>
-      <c r="BT9" s="10"/>
-      <c r="BU9" s="11"/>
-      <c r="BV9" s="10"/>
-      <c r="BW9" s="11"/>
-      <c r="BX9" s="10"/>
+      <c r="BW9" s="10"/>
       <c r="BY9" s="11"/>
       <c r="BZ9" s="10"/>
       <c r="CA9" s="11"/>
@@ -3367,13 +3472,13 @@
       <c r="CE9" s="11"/>
       <c r="CF9" s="10"/>
       <c r="CG9" s="11"/>
-      <c r="CH9" s="12"/>
-      <c r="CI9" s="10"/>
-      <c r="CJ9" s="11"/>
-      <c r="CK9" s="10"/>
-      <c r="CL9" s="11"/>
-      <c r="CM9" s="10"/>
-      <c r="CN9" s="11"/>
+      <c r="CH9" s="10"/>
+      <c r="CI9" s="11"/>
+      <c r="CJ9" s="10"/>
+      <c r="CK9" s="11"/>
+      <c r="CL9" s="10"/>
+      <c r="CM9" s="11"/>
+      <c r="CN9" s="12"/>
       <c r="CO9" s="10"/>
       <c r="CP9" s="11"/>
       <c r="CQ9" s="10"/>
@@ -3384,90 +3489,96 @@
       <c r="CV9" s="11"/>
       <c r="CW9" s="10"/>
       <c r="CX9" s="11"/>
-      <c r="CZ9" s="10"/>
+      <c r="CY9" s="10"/>
+      <c r="CZ9" s="11"/>
       <c r="DA9" s="10"/>
       <c r="DB9" s="11"/>
       <c r="DC9" s="10"/>
       <c r="DD9" s="11"/>
-      <c r="DE9" s="11"/>
       <c r="DF9" s="10"/>
       <c r="DG9" s="10"/>
-      <c r="DH9" s="10"/>
+      <c r="DH9" s="11"/>
       <c r="DI9" s="10"/>
+      <c r="DJ9" s="11"/>
       <c r="DK9" s="11"/>
-    </row>
-    <row r="10" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="DL9" s="10"/>
+      <c r="DM9" s="10"/>
+      <c r="DN9" s="10"/>
+      <c r="DO9" s="10"/>
+      <c r="DQ9" s="11"/>
+    </row>
+    <row r="10" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A10" s="10">
         <v>0</v>
       </c>
       <c r="B10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" s="11">
         <v>14</v>
       </c>
       <c r="F10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="11">
         <v>26</v>
       </c>
       <c r="J10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="11">
         <v>25</v>
       </c>
       <c r="N10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10" s="11">
         <v>26</v>
       </c>
       <c r="R10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S10" s="18">
-        <v>0</v>
-      </c>
-      <c r="T10" s="14">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
       </c>
       <c r="U10" s="11">
         <v>21</v>
       </c>
       <c r="V10" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W10" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y10" s="11">
         <v>23</v>
@@ -3492,51 +3603,51 @@
       <c r="AR10" s="10"/>
       <c r="AS10" s="11"/>
       <c r="AT10" s="12"/>
-      <c r="AU10" s="10">
-        <v>1</v>
-      </c>
-      <c r="AV10" s="18">
-        <v>1</v>
-      </c>
-      <c r="AW10" s="14">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="11">
+      <c r="AU10" s="11"/>
+      <c r="AV10" s="11"/>
+      <c r="AW10" s="11"/>
+      <c r="AX10" s="11"/>
+      <c r="AY10" s="11"/>
+      <c r="AZ10" s="11"/>
+      <c r="BA10" s="10">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="18">
+        <v>1</v>
+      </c>
+      <c r="BC10" s="14">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="11">
         <v>15</v>
       </c>
-      <c r="AY10" s="10"/>
-      <c r="AZ10" s="11"/>
-      <c r="BA10" s="12"/>
-      <c r="BB10" s="10"/>
-      <c r="BC10" s="11"/>
-      <c r="BD10" s="12"/>
       <c r="BE10" s="10"/>
       <c r="BF10" s="11"/>
-      <c r="BG10" s="10"/>
-      <c r="BH10" s="11"/>
-      <c r="BI10" s="10"/>
-      <c r="BJ10" s="11"/>
+      <c r="BG10" s="12"/>
+      <c r="BH10" s="10"/>
+      <c r="BI10" s="11"/>
+      <c r="BJ10" s="12"/>
       <c r="BK10" s="10"/>
       <c r="BL10" s="11"/>
-      <c r="BM10" s="10">
-        <v>1</v>
-      </c>
-      <c r="BN10">
-        <v>1</v>
-      </c>
-      <c r="BO10" s="11">
-        <v>1</v>
-      </c>
-      <c r="BP10" s="11">
+      <c r="BM10" s="10"/>
+      <c r="BN10" s="11"/>
+      <c r="BO10" s="10"/>
+      <c r="BP10" s="11"/>
+      <c r="BQ10" s="10"/>
+      <c r="BR10" s="11"/>
+      <c r="BS10" s="10">
+        <v>1</v>
+      </c>
+      <c r="BT10">
+        <v>1</v>
+      </c>
+      <c r="BU10" s="11">
+        <v>1</v>
+      </c>
+      <c r="BV10" s="11">
         <v>10</v>
       </c>
-      <c r="BQ10" s="10"/>
-      <c r="BS10" s="11"/>
-      <c r="BT10" s="10"/>
-      <c r="BU10" s="11"/>
-      <c r="BV10" s="10"/>
-      <c r="BW10" s="11"/>
-      <c r="BX10" s="10"/>
+      <c r="BW10" s="10"/>
       <c r="BY10" s="11"/>
       <c r="BZ10" s="10"/>
       <c r="CA10" s="11"/>
@@ -3546,13 +3657,13 @@
       <c r="CE10" s="11"/>
       <c r="CF10" s="10"/>
       <c r="CG10" s="11"/>
-      <c r="CH10" s="12"/>
-      <c r="CI10" s="10"/>
-      <c r="CJ10" s="11"/>
-      <c r="CK10" s="10"/>
-      <c r="CL10" s="11"/>
-      <c r="CM10" s="10"/>
-      <c r="CN10" s="11"/>
+      <c r="CH10" s="10"/>
+      <c r="CI10" s="11"/>
+      <c r="CJ10" s="10"/>
+      <c r="CK10" s="11"/>
+      <c r="CL10" s="10"/>
+      <c r="CM10" s="11"/>
+      <c r="CN10" s="12"/>
       <c r="CO10" s="10"/>
       <c r="CP10" s="11"/>
       <c r="CQ10" s="10"/>
@@ -3563,21 +3674,27 @@
       <c r="CV10" s="11"/>
       <c r="CW10" s="10"/>
       <c r="CX10" s="11"/>
-      <c r="CZ10" s="10"/>
+      <c r="CY10" s="10"/>
+      <c r="CZ10" s="11"/>
       <c r="DA10" s="10"/>
       <c r="DB10" s="11"/>
       <c r="DC10" s="10"/>
       <c r="DD10" s="11"/>
-      <c r="DE10" s="11"/>
       <c r="DF10" s="10"/>
       <c r="DG10" s="10"/>
-      <c r="DH10" s="10"/>
+      <c r="DH10" s="11"/>
       <c r="DI10" s="10"/>
+      <c r="DJ10" s="11"/>
       <c r="DK10" s="11"/>
-    </row>
-    <row r="11" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="DL10" s="10"/>
+      <c r="DM10" s="10"/>
+      <c r="DN10" s="10"/>
+      <c r="DO10" s="10"/>
+      <c r="DQ10" s="11"/>
+    </row>
+    <row r="11" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" s="18">
         <v>0</v>
@@ -3627,34 +3744,34 @@
       <c r="AR11" s="10"/>
       <c r="AS11" s="11"/>
       <c r="AT11" s="12"/>
-      <c r="AU11" s="10"/>
-      <c r="AV11" s="18"/>
+      <c r="AU11" s="11"/>
+      <c r="AV11" s="11"/>
       <c r="AW11" s="11"/>
-      <c r="AX11" s="12"/>
-      <c r="AY11" s="10"/>
+      <c r="AX11" s="11"/>
+      <c r="AY11" s="11"/>
       <c r="AZ11" s="11"/>
-      <c r="BA11" s="12"/>
-      <c r="BB11" s="10"/>
+      <c r="BA11" s="10"/>
+      <c r="BB11" s="18"/>
       <c r="BC11" s="11"/>
       <c r="BD11" s="12"/>
       <c r="BE11" s="10"/>
       <c r="BF11" s="11"/>
-      <c r="BG11" s="10"/>
-      <c r="BH11" s="11"/>
-      <c r="BI11" s="10"/>
-      <c r="BJ11" s="11"/>
+      <c r="BG11" s="12"/>
+      <c r="BH11" s="10"/>
+      <c r="BI11" s="11"/>
+      <c r="BJ11" s="12"/>
       <c r="BK11" s="10"/>
       <c r="BL11" s="11"/>
       <c r="BM11" s="10"/>
-      <c r="BO11" s="11"/>
+      <c r="BN11" s="11"/>
+      <c r="BO11" s="10"/>
       <c r="BP11" s="11"/>
       <c r="BQ11" s="10"/>
-      <c r="BS11" s="11"/>
-      <c r="BT11" s="10"/>
+      <c r="BR11" s="11"/>
+      <c r="BS11" s="10"/>
       <c r="BU11" s="11"/>
-      <c r="BV11" s="10"/>
-      <c r="BW11" s="11"/>
-      <c r="BX11" s="10"/>
+      <c r="BV11" s="11"/>
+      <c r="BW11" s="10"/>
       <c r="BY11" s="11"/>
       <c r="BZ11" s="10"/>
       <c r="CA11" s="11"/>
@@ -3664,13 +3781,13 @@
       <c r="CE11" s="11"/>
       <c r="CF11" s="10"/>
       <c r="CG11" s="11"/>
-      <c r="CH11" s="12"/>
-      <c r="CI11" s="10"/>
-      <c r="CJ11" s="11"/>
-      <c r="CK11" s="10"/>
-      <c r="CL11" s="11"/>
-      <c r="CM11" s="10"/>
-      <c r="CN11" s="11"/>
+      <c r="CH11" s="10"/>
+      <c r="CI11" s="11"/>
+      <c r="CJ11" s="10"/>
+      <c r="CK11" s="11"/>
+      <c r="CL11" s="10"/>
+      <c r="CM11" s="11"/>
+      <c r="CN11" s="12"/>
       <c r="CO11" s="10"/>
       <c r="CP11" s="11"/>
       <c r="CQ11" s="10"/>
@@ -3681,21 +3798,27 @@
       <c r="CV11" s="11"/>
       <c r="CW11" s="10"/>
       <c r="CX11" s="11"/>
-      <c r="CZ11" s="10"/>
+      <c r="CY11" s="10"/>
+      <c r="CZ11" s="11"/>
       <c r="DA11" s="10"/>
       <c r="DB11" s="11"/>
       <c r="DC11" s="10"/>
       <c r="DD11" s="11"/>
-      <c r="DE11" s="11"/>
       <c r="DF11" s="10"/>
       <c r="DG11" s="10"/>
-      <c r="DH11" s="10"/>
+      <c r="DH11" s="11"/>
       <c r="DI11" s="10"/>
+      <c r="DJ11" s="11"/>
       <c r="DK11" s="11"/>
-    </row>
-    <row r="12" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="DL11" s="10"/>
+      <c r="DM11" s="10"/>
+      <c r="DN11" s="10"/>
+      <c r="DO11" s="10"/>
+      <c r="DQ11" s="11"/>
+    </row>
+    <row r="12" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B12" s="18">
         <v>0</v>
@@ -3704,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" s="11">
         <v>19</v>
@@ -3745,34 +3868,34 @@
       <c r="AR12" s="10"/>
       <c r="AS12" s="11"/>
       <c r="AT12" s="12"/>
-      <c r="AU12" s="10"/>
-      <c r="AV12" s="18"/>
+      <c r="AU12" s="11"/>
+      <c r="AV12" s="11"/>
       <c r="AW12" s="11"/>
-      <c r="AX12" s="12"/>
-      <c r="AY12" s="10"/>
+      <c r="AX12" s="11"/>
+      <c r="AY12" s="11"/>
       <c r="AZ12" s="11"/>
-      <c r="BA12" s="12"/>
-      <c r="BB12" s="10"/>
+      <c r="BA12" s="10"/>
+      <c r="BB12" s="18"/>
       <c r="BC12" s="11"/>
       <c r="BD12" s="12"/>
       <c r="BE12" s="10"/>
       <c r="BF12" s="11"/>
-      <c r="BG12" s="10"/>
-      <c r="BH12" s="11"/>
-      <c r="BI12" s="10"/>
-      <c r="BJ12" s="11"/>
+      <c r="BG12" s="12"/>
+      <c r="BH12" s="10"/>
+      <c r="BI12" s="11"/>
+      <c r="BJ12" s="12"/>
       <c r="BK12" s="10"/>
       <c r="BL12" s="11"/>
       <c r="BM12" s="10"/>
-      <c r="BO12" s="11"/>
+      <c r="BN12" s="11"/>
+      <c r="BO12" s="10"/>
       <c r="BP12" s="11"/>
       <c r="BQ12" s="10"/>
-      <c r="BS12" s="11"/>
-      <c r="BT12" s="10"/>
+      <c r="BR12" s="11"/>
+      <c r="BS12" s="10"/>
       <c r="BU12" s="11"/>
-      <c r="BV12" s="10"/>
-      <c r="BW12" s="11"/>
-      <c r="BX12" s="10"/>
+      <c r="BV12" s="11"/>
+      <c r="BW12" s="10"/>
       <c r="BY12" s="11"/>
       <c r="BZ12" s="10"/>
       <c r="CA12" s="11"/>
@@ -3782,13 +3905,13 @@
       <c r="CE12" s="11"/>
       <c r="CF12" s="10"/>
       <c r="CG12" s="11"/>
-      <c r="CH12" s="12"/>
-      <c r="CI12" s="10"/>
-      <c r="CJ12" s="11"/>
-      <c r="CK12" s="10"/>
-      <c r="CL12" s="11"/>
-      <c r="CM12" s="10"/>
-      <c r="CN12" s="11"/>
+      <c r="CH12" s="10"/>
+      <c r="CI12" s="11"/>
+      <c r="CJ12" s="10"/>
+      <c r="CK12" s="11"/>
+      <c r="CL12" s="10"/>
+      <c r="CM12" s="11"/>
+      <c r="CN12" s="12"/>
       <c r="CO12" s="10"/>
       <c r="CP12" s="11"/>
       <c r="CQ12" s="10"/>
@@ -3799,27 +3922,33 @@
       <c r="CV12" s="11"/>
       <c r="CW12" s="10"/>
       <c r="CX12" s="11"/>
-      <c r="CZ12" s="10"/>
+      <c r="CY12" s="10"/>
+      <c r="CZ12" s="11"/>
       <c r="DA12" s="10"/>
       <c r="DB12" s="11"/>
       <c r="DC12" s="10"/>
       <c r="DD12" s="11"/>
-      <c r="DE12" s="11"/>
       <c r="DF12" s="10"/>
       <c r="DG12" s="10"/>
-      <c r="DH12" s="10"/>
+      <c r="DH12" s="11"/>
       <c r="DI12" s="10"/>
+      <c r="DJ12" s="11"/>
       <c r="DK12" s="11"/>
-    </row>
-    <row r="13" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="DL12" s="10"/>
+      <c r="DM12" s="10"/>
+      <c r="DN12" s="10"/>
+      <c r="DO12" s="10"/>
+      <c r="DQ12" s="11"/>
+    </row>
+    <row r="13" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B13" s="18">
         <v>0</v>
       </c>
       <c r="C13" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="18">
         <v>0</v>
@@ -3863,34 +3992,34 @@
       <c r="AR13" s="10"/>
       <c r="AS13" s="11"/>
       <c r="AT13" s="12"/>
-      <c r="AU13" s="10"/>
-      <c r="AV13" s="18"/>
+      <c r="AU13" s="11"/>
+      <c r="AV13" s="11"/>
       <c r="AW13" s="11"/>
-      <c r="AX13" s="12"/>
-      <c r="AY13" s="10"/>
+      <c r="AX13" s="11"/>
+      <c r="AY13" s="11"/>
       <c r="AZ13" s="11"/>
-      <c r="BA13" s="12"/>
-      <c r="BB13" s="10"/>
+      <c r="BA13" s="10"/>
+      <c r="BB13" s="18"/>
       <c r="BC13" s="11"/>
       <c r="BD13" s="12"/>
       <c r="BE13" s="10"/>
       <c r="BF13" s="11"/>
-      <c r="BG13" s="10"/>
-      <c r="BH13" s="11"/>
-      <c r="BI13" s="10"/>
-      <c r="BJ13" s="11"/>
+      <c r="BG13" s="12"/>
+      <c r="BH13" s="10"/>
+      <c r="BI13" s="11"/>
+      <c r="BJ13" s="12"/>
       <c r="BK13" s="10"/>
       <c r="BL13" s="11"/>
       <c r="BM13" s="10"/>
-      <c r="BO13" s="11"/>
+      <c r="BN13" s="11"/>
+      <c r="BO13" s="10"/>
       <c r="BP13" s="11"/>
       <c r="BQ13" s="10"/>
-      <c r="BS13" s="11"/>
-      <c r="BT13" s="10"/>
+      <c r="BR13" s="11"/>
+      <c r="BS13" s="10"/>
       <c r="BU13" s="11"/>
-      <c r="BV13" s="10"/>
-      <c r="BW13" s="11"/>
-      <c r="BX13" s="10"/>
+      <c r="BV13" s="11"/>
+      <c r="BW13" s="10"/>
       <c r="BY13" s="11"/>
       <c r="BZ13" s="10"/>
       <c r="CA13" s="11"/>
@@ -3900,13 +4029,13 @@
       <c r="CE13" s="11"/>
       <c r="CF13" s="10"/>
       <c r="CG13" s="11"/>
-      <c r="CH13" s="12"/>
-      <c r="CI13" s="10"/>
-      <c r="CJ13" s="11"/>
-      <c r="CK13" s="10"/>
-      <c r="CL13" s="11"/>
-      <c r="CM13" s="10"/>
-      <c r="CN13" s="11"/>
+      <c r="CH13" s="10"/>
+      <c r="CI13" s="11"/>
+      <c r="CJ13" s="10"/>
+      <c r="CK13" s="11"/>
+      <c r="CL13" s="10"/>
+      <c r="CM13" s="11"/>
+      <c r="CN13" s="12"/>
       <c r="CO13" s="10"/>
       <c r="CP13" s="11"/>
       <c r="CQ13" s="10"/>
@@ -3917,30 +4046,36 @@
       <c r="CV13" s="11"/>
       <c r="CW13" s="10"/>
       <c r="CX13" s="11"/>
-      <c r="CZ13" s="10"/>
+      <c r="CY13" s="10"/>
+      <c r="CZ13" s="11"/>
       <c r="DA13" s="10"/>
       <c r="DB13" s="11"/>
       <c r="DC13" s="10"/>
       <c r="DD13" s="11"/>
-      <c r="DE13" s="11"/>
       <c r="DF13" s="10"/>
       <c r="DG13" s="10"/>
-      <c r="DH13" s="10"/>
+      <c r="DH13" s="11"/>
       <c r="DI13" s="10"/>
+      <c r="DJ13" s="11"/>
       <c r="DK13" s="11"/>
-    </row>
-    <row r="14" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="DL13" s="10"/>
+      <c r="DM13" s="10"/>
+      <c r="DN13" s="10"/>
+      <c r="DO13" s="10"/>
+      <c r="DQ13" s="11"/>
+    </row>
+    <row r="14" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A14" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B14" s="18">
         <v>0</v>
       </c>
       <c r="C14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="11">
         <v>17</v>
@@ -3981,34 +4116,34 @@
       <c r="AR14" s="10"/>
       <c r="AS14" s="11"/>
       <c r="AT14" s="12"/>
-      <c r="AU14" s="10"/>
-      <c r="AV14" s="18"/>
+      <c r="AU14" s="11"/>
+      <c r="AV14" s="11"/>
       <c r="AW14" s="11"/>
-      <c r="AX14" s="12"/>
-      <c r="AY14" s="10"/>
+      <c r="AX14" s="11"/>
+      <c r="AY14" s="11"/>
       <c r="AZ14" s="11"/>
-      <c r="BA14" s="12"/>
-      <c r="BB14" s="10"/>
+      <c r="BA14" s="10"/>
+      <c r="BB14" s="18"/>
       <c r="BC14" s="11"/>
       <c r="BD14" s="12"/>
       <c r="BE14" s="10"/>
       <c r="BF14" s="11"/>
-      <c r="BG14" s="10"/>
-      <c r="BH14" s="11"/>
-      <c r="BI14" s="10"/>
-      <c r="BJ14" s="11"/>
+      <c r="BG14" s="12"/>
+      <c r="BH14" s="10"/>
+      <c r="BI14" s="11"/>
+      <c r="BJ14" s="12"/>
       <c r="BK14" s="10"/>
       <c r="BL14" s="11"/>
       <c r="BM14" s="10"/>
-      <c r="BO14" s="11"/>
+      <c r="BN14" s="11"/>
+      <c r="BO14" s="10"/>
       <c r="BP14" s="11"/>
       <c r="BQ14" s="10"/>
-      <c r="BS14" s="11"/>
-      <c r="BT14" s="10"/>
+      <c r="BR14" s="11"/>
+      <c r="BS14" s="10"/>
       <c r="BU14" s="11"/>
-      <c r="BV14" s="10"/>
-      <c r="BW14" s="11"/>
-      <c r="BX14" s="10"/>
+      <c r="BV14" s="11"/>
+      <c r="BW14" s="10"/>
       <c r="BY14" s="11"/>
       <c r="BZ14" s="10"/>
       <c r="CA14" s="11"/>
@@ -4018,13 +4153,13 @@
       <c r="CE14" s="11"/>
       <c r="CF14" s="10"/>
       <c r="CG14" s="11"/>
-      <c r="CH14" s="12"/>
-      <c r="CI14" s="10"/>
-      <c r="CJ14" s="11"/>
-      <c r="CK14" s="10"/>
-      <c r="CL14" s="11"/>
-      <c r="CM14" s="10"/>
-      <c r="CN14" s="11"/>
+      <c r="CH14" s="10"/>
+      <c r="CI14" s="11"/>
+      <c r="CJ14" s="10"/>
+      <c r="CK14" s="11"/>
+      <c r="CL14" s="10"/>
+      <c r="CM14" s="11"/>
+      <c r="CN14" s="12"/>
       <c r="CO14" s="10"/>
       <c r="CP14" s="11"/>
       <c r="CQ14" s="10"/>
@@ -4035,24 +4170,30 @@
       <c r="CV14" s="11"/>
       <c r="CW14" s="10"/>
       <c r="CX14" s="11"/>
-      <c r="CZ14" s="10"/>
+      <c r="CY14" s="10"/>
+      <c r="CZ14" s="11"/>
       <c r="DA14" s="10"/>
       <c r="DB14" s="11"/>
       <c r="DC14" s="10"/>
       <c r="DD14" s="11"/>
-      <c r="DE14" s="11"/>
       <c r="DF14" s="10"/>
       <c r="DG14" s="10"/>
-      <c r="DH14" s="10"/>
+      <c r="DH14" s="11"/>
       <c r="DI14" s="10"/>
+      <c r="DJ14" s="11"/>
       <c r="DK14" s="11"/>
-    </row>
-    <row r="15" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="DL14" s="10"/>
+      <c r="DM14" s="10"/>
+      <c r="DN14" s="10"/>
+      <c r="DO14" s="10"/>
+      <c r="DQ14" s="11"/>
+    </row>
+    <row r="15" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A15" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B15" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C15" s="18">
         <v>0</v>
@@ -4099,34 +4240,34 @@
       <c r="AR15" s="10"/>
       <c r="AS15" s="11"/>
       <c r="AT15" s="12"/>
-      <c r="AU15" s="10"/>
-      <c r="AV15" s="18"/>
+      <c r="AU15" s="11"/>
+      <c r="AV15" s="11"/>
       <c r="AW15" s="11"/>
-      <c r="AX15" s="12"/>
-      <c r="AY15" s="10"/>
+      <c r="AX15" s="11"/>
+      <c r="AY15" s="11"/>
       <c r="AZ15" s="11"/>
-      <c r="BA15" s="12"/>
-      <c r="BB15" s="10"/>
+      <c r="BA15" s="10"/>
+      <c r="BB15" s="18"/>
       <c r="BC15" s="11"/>
       <c r="BD15" s="12"/>
       <c r="BE15" s="10"/>
       <c r="BF15" s="11"/>
-      <c r="BG15" s="10"/>
-      <c r="BH15" s="11"/>
-      <c r="BI15" s="10"/>
-      <c r="BJ15" s="11"/>
+      <c r="BG15" s="12"/>
+      <c r="BH15" s="10"/>
+      <c r="BI15" s="11"/>
+      <c r="BJ15" s="12"/>
       <c r="BK15" s="10"/>
       <c r="BL15" s="11"/>
       <c r="BM15" s="10"/>
-      <c r="BO15" s="11"/>
+      <c r="BN15" s="11"/>
+      <c r="BO15" s="10"/>
       <c r="BP15" s="11"/>
       <c r="BQ15" s="10"/>
-      <c r="BS15" s="11"/>
-      <c r="BT15" s="10"/>
+      <c r="BR15" s="11"/>
+      <c r="BS15" s="10"/>
       <c r="BU15" s="11"/>
-      <c r="BV15" s="10"/>
-      <c r="BW15" s="11"/>
-      <c r="BX15" s="10"/>
+      <c r="BV15" s="11"/>
+      <c r="BW15" s="10"/>
       <c r="BY15" s="11"/>
       <c r="BZ15" s="10"/>
       <c r="CA15" s="11"/>
@@ -4136,13 +4277,13 @@
       <c r="CE15" s="11"/>
       <c r="CF15" s="10"/>
       <c r="CG15" s="11"/>
-      <c r="CH15" s="12"/>
-      <c r="CI15" s="10"/>
-      <c r="CJ15" s="11"/>
-      <c r="CK15" s="10"/>
-      <c r="CL15" s="11"/>
-      <c r="CM15" s="10"/>
-      <c r="CN15" s="11"/>
+      <c r="CH15" s="10"/>
+      <c r="CI15" s="11"/>
+      <c r="CJ15" s="10"/>
+      <c r="CK15" s="11"/>
+      <c r="CL15" s="10"/>
+      <c r="CM15" s="11"/>
+      <c r="CN15" s="12"/>
       <c r="CO15" s="10"/>
       <c r="CP15" s="11"/>
       <c r="CQ15" s="10"/>
@@ -4153,30 +4294,36 @@
       <c r="CV15" s="11"/>
       <c r="CW15" s="10"/>
       <c r="CX15" s="11"/>
-      <c r="CZ15" s="10"/>
+      <c r="CY15" s="10"/>
+      <c r="CZ15" s="11"/>
       <c r="DA15" s="10"/>
       <c r="DB15" s="11"/>
       <c r="DC15" s="10"/>
       <c r="DD15" s="11"/>
-      <c r="DE15" s="11"/>
       <c r="DF15" s="10"/>
       <c r="DG15" s="10"/>
-      <c r="DH15" s="10"/>
+      <c r="DH15" s="11"/>
       <c r="DI15" s="10"/>
+      <c r="DJ15" s="11"/>
       <c r="DK15" s="11"/>
-    </row>
-    <row r="16" spans="1:121" x14ac:dyDescent="0.25">
+      <c r="DL15" s="10"/>
+      <c r="DM15" s="10"/>
+      <c r="DN15" s="10"/>
+      <c r="DO15" s="10"/>
+      <c r="DQ15" s="11"/>
+    </row>
+    <row r="16" spans="1:127" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B16" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C16" s="18">
         <v>0</v>
       </c>
       <c r="D16" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E16" s="11">
         <v>16</v>
@@ -4217,34 +4364,34 @@
       <c r="AR16" s="10"/>
       <c r="AS16" s="11"/>
       <c r="AT16" s="12"/>
-      <c r="AU16" s="10"/>
-      <c r="AV16" s="18"/>
+      <c r="AU16" s="11"/>
+      <c r="AV16" s="11"/>
       <c r="AW16" s="11"/>
-      <c r="AX16" s="12"/>
-      <c r="AY16" s="10"/>
+      <c r="AX16" s="11"/>
+      <c r="AY16" s="11"/>
       <c r="AZ16" s="11"/>
-      <c r="BA16" s="12"/>
-      <c r="BB16" s="10"/>
+      <c r="BA16" s="10"/>
+      <c r="BB16" s="18"/>
       <c r="BC16" s="11"/>
       <c r="BD16" s="12"/>
       <c r="BE16" s="10"/>
       <c r="BF16" s="11"/>
-      <c r="BG16" s="10"/>
-      <c r="BH16" s="11"/>
-      <c r="BI16" s="10"/>
-      <c r="BJ16" s="11"/>
+      <c r="BG16" s="12"/>
+      <c r="BH16" s="10"/>
+      <c r="BI16" s="11"/>
+      <c r="BJ16" s="12"/>
       <c r="BK16" s="10"/>
       <c r="BL16" s="11"/>
       <c r="BM16" s="10"/>
-      <c r="BO16" s="11"/>
+      <c r="BN16" s="11"/>
+      <c r="BO16" s="10"/>
       <c r="BP16" s="11"/>
       <c r="BQ16" s="10"/>
-      <c r="BS16" s="11"/>
-      <c r="BT16" s="10"/>
+      <c r="BR16" s="11"/>
+      <c r="BS16" s="10"/>
       <c r="BU16" s="11"/>
-      <c r="BV16" s="10"/>
-      <c r="BW16" s="11"/>
-      <c r="BX16" s="10"/>
+      <c r="BV16" s="11"/>
+      <c r="BW16" s="10"/>
       <c r="BY16" s="11"/>
       <c r="BZ16" s="10"/>
       <c r="CA16" s="11"/>
@@ -4254,13 +4401,13 @@
       <c r="CE16" s="11"/>
       <c r="CF16" s="10"/>
       <c r="CG16" s="11"/>
-      <c r="CH16" s="12"/>
-      <c r="CI16" s="10"/>
-      <c r="CJ16" s="11"/>
-      <c r="CK16" s="10"/>
-      <c r="CL16" s="11"/>
-      <c r="CM16" s="10"/>
-      <c r="CN16" s="11"/>
+      <c r="CH16" s="10"/>
+      <c r="CI16" s="11"/>
+      <c r="CJ16" s="10"/>
+      <c r="CK16" s="11"/>
+      <c r="CL16" s="10"/>
+      <c r="CM16" s="11"/>
+      <c r="CN16" s="12"/>
       <c r="CO16" s="10"/>
       <c r="CP16" s="11"/>
       <c r="CQ16" s="10"/>
@@ -4271,27 +4418,33 @@
       <c r="CV16" s="11"/>
       <c r="CW16" s="10"/>
       <c r="CX16" s="11"/>
-      <c r="CZ16" s="10"/>
+      <c r="CY16" s="10"/>
+      <c r="CZ16" s="11"/>
       <c r="DA16" s="10"/>
       <c r="DB16" s="11"/>
       <c r="DC16" s="10"/>
       <c r="DD16" s="11"/>
-      <c r="DE16" s="11"/>
       <c r="DF16" s="10"/>
       <c r="DG16" s="10"/>
-      <c r="DH16" s="10"/>
+      <c r="DH16" s="11"/>
       <c r="DI16" s="10"/>
+      <c r="DJ16" s="11"/>
       <c r="DK16" s="11"/>
-    </row>
-    <row r="17" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="DL16" s="10"/>
+      <c r="DM16" s="10"/>
+      <c r="DN16" s="10"/>
+      <c r="DO16" s="10"/>
+      <c r="DQ16" s="11"/>
+    </row>
+    <row r="17" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B17" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D17" s="18">
         <v>0</v>
@@ -4335,34 +4488,34 @@
       <c r="AR17" s="10"/>
       <c r="AS17" s="11"/>
       <c r="AT17" s="12"/>
-      <c r="AU17" s="10"/>
-      <c r="AV17" s="18"/>
+      <c r="AU17" s="11"/>
+      <c r="AV17" s="11"/>
       <c r="AW17" s="11"/>
-      <c r="AX17" s="12"/>
-      <c r="AY17" s="10"/>
+      <c r="AX17" s="11"/>
+      <c r="AY17" s="11"/>
       <c r="AZ17" s="11"/>
-      <c r="BA17" s="12"/>
-      <c r="BB17" s="10"/>
+      <c r="BA17" s="10"/>
+      <c r="BB17" s="18"/>
       <c r="BC17" s="11"/>
       <c r="BD17" s="12"/>
       <c r="BE17" s="10"/>
       <c r="BF17" s="11"/>
-      <c r="BG17" s="10"/>
-      <c r="BH17" s="11"/>
-      <c r="BI17" s="10"/>
-      <c r="BJ17" s="11"/>
+      <c r="BG17" s="12"/>
+      <c r="BH17" s="10"/>
+      <c r="BI17" s="11"/>
+      <c r="BJ17" s="12"/>
       <c r="BK17" s="10"/>
       <c r="BL17" s="11"/>
       <c r="BM17" s="10"/>
-      <c r="BO17" s="11"/>
+      <c r="BN17" s="11"/>
+      <c r="BO17" s="10"/>
       <c r="BP17" s="11"/>
       <c r="BQ17" s="10"/>
-      <c r="BS17" s="11"/>
-      <c r="BT17" s="10"/>
+      <c r="BR17" s="11"/>
+      <c r="BS17" s="10"/>
       <c r="BU17" s="11"/>
-      <c r="BV17" s="10"/>
-      <c r="BW17" s="11"/>
-      <c r="BX17" s="10"/>
+      <c r="BV17" s="11"/>
+      <c r="BW17" s="10"/>
       <c r="BY17" s="11"/>
       <c r="BZ17" s="10"/>
       <c r="CA17" s="11"/>
@@ -4372,13 +4525,13 @@
       <c r="CE17" s="11"/>
       <c r="CF17" s="10"/>
       <c r="CG17" s="11"/>
-      <c r="CH17" s="12"/>
-      <c r="CI17" s="10"/>
-      <c r="CJ17" s="11"/>
-      <c r="CK17" s="10"/>
-      <c r="CL17" s="11"/>
-      <c r="CM17" s="10"/>
-      <c r="CN17" s="11"/>
+      <c r="CH17" s="10"/>
+      <c r="CI17" s="11"/>
+      <c r="CJ17" s="10"/>
+      <c r="CK17" s="11"/>
+      <c r="CL17" s="10"/>
+      <c r="CM17" s="11"/>
+      <c r="CN17" s="12"/>
       <c r="CO17" s="10"/>
       <c r="CP17" s="11"/>
       <c r="CQ17" s="10"/>
@@ -4389,30 +4542,36 @@
       <c r="CV17" s="11"/>
       <c r="CW17" s="10"/>
       <c r="CX17" s="11"/>
-      <c r="CZ17" s="10"/>
+      <c r="CY17" s="10"/>
+      <c r="CZ17" s="11"/>
       <c r="DA17" s="10"/>
       <c r="DB17" s="11"/>
       <c r="DC17" s="10"/>
       <c r="DD17" s="11"/>
-      <c r="DE17" s="11"/>
       <c r="DF17" s="10"/>
       <c r="DG17" s="10"/>
-      <c r="DH17" s="10"/>
+      <c r="DH17" s="11"/>
       <c r="DI17" s="10"/>
+      <c r="DJ17" s="11"/>
       <c r="DK17" s="11"/>
-    </row>
-    <row r="18" spans="1:115" x14ac:dyDescent="0.25">
+      <c r="DL17" s="10"/>
+      <c r="DM17" s="10"/>
+      <c r="DN17" s="10"/>
+      <c r="DO17" s="10"/>
+      <c r="DQ17" s="11"/>
+    </row>
+    <row r="18" spans="1:121" x14ac:dyDescent="0.25">
       <c r="A18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B18" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" s="18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="11">
         <v>10</v>
@@ -4453,34 +4612,34 @@
       <c r="AR18" s="10"/>
       <c r="AS18" s="11"/>
       <c r="AT18" s="12"/>
-      <c r="AU18" s="10"/>
-      <c r="AV18" s="18"/>
+      <c r="AU18" s="11"/>
+      <c r="AV18" s="11"/>
       <c r="AW18" s="11"/>
-      <c r="AX18" s="12"/>
-      <c r="AY18" s="10"/>
+      <c r="AX18" s="11"/>
+      <c r="AY18" s="11"/>
       <c r="AZ18" s="11"/>
-      <c r="BA18" s="12"/>
-      <c r="BB18" s="10"/>
+      <c r="BA18" s="10"/>
+      <c r="BB18" s="18"/>
       <c r="BC18" s="11"/>
       <c r="BD18" s="12"/>
       <c r="BE18" s="10"/>
       <c r="BF18" s="11"/>
-      <c r="BG18" s="10"/>
-      <c r="BH18" s="11"/>
-      <c r="BI18" s="10"/>
-      <c r="BJ18" s="11"/>
+      <c r="BG18" s="12"/>
+      <c r="BH18" s="10"/>
+      <c r="BI18" s="11"/>
+      <c r="BJ18" s="12"/>
       <c r="BK18" s="10"/>
       <c r="BL18" s="11"/>
       <c r="BM18" s="10"/>
-      <c r="BO18" s="11"/>
+      <c r="BN18" s="11"/>
+      <c r="BO18" s="10"/>
       <c r="BP18" s="11"/>
       <c r="BQ18" s="10"/>
-      <c r="BS18" s="11"/>
-      <c r="BT18" s="10"/>
+      <c r="BR18" s="11"/>
+      <c r="BS18" s="10"/>
       <c r="BU18" s="11"/>
-      <c r="BV18" s="10"/>
-      <c r="BW18" s="11"/>
-      <c r="BX18" s="10"/>
+      <c r="BV18" s="11"/>
+      <c r="BW18" s="10"/>
       <c r="BY18" s="11"/>
       <c r="BZ18" s="10"/>
       <c r="CA18" s="11"/>
@@ -4490,13 +4649,13 @@
       <c r="CE18" s="11"/>
       <c r="CF18" s="10"/>
       <c r="CG18" s="11"/>
-      <c r="CH18" s="12"/>
-      <c r="CI18" s="10"/>
-      <c r="CJ18" s="11"/>
-      <c r="CK18" s="10"/>
-      <c r="CL18" s="11"/>
-      <c r="CM18" s="10"/>
-      <c r="CN18" s="11"/>
+      <c r="CH18" s="10"/>
+      <c r="CI18" s="11"/>
+      <c r="CJ18" s="10"/>
+      <c r="CK18" s="11"/>
+      <c r="CL18" s="10"/>
+      <c r="CM18" s="11"/>
+      <c r="CN18" s="12"/>
       <c r="CO18" s="10"/>
       <c r="CP18" s="11"/>
       <c r="CQ18" s="10"/>
@@ -4507,17 +4666,23 @@
       <c r="CV18" s="11"/>
       <c r="CW18" s="10"/>
       <c r="CX18" s="11"/>
-      <c r="CZ18" s="10"/>
+      <c r="CY18" s="10"/>
+      <c r="CZ18" s="11"/>
       <c r="DA18" s="10"/>
       <c r="DB18" s="11"/>
       <c r="DC18" s="10"/>
       <c r="DD18" s="11"/>
-      <c r="DE18" s="11"/>
       <c r="DF18" s="10"/>
       <c r="DG18" s="10"/>
-      <c r="DH18" s="10"/>
+      <c r="DH18" s="11"/>
       <c r="DI18" s="10"/>
+      <c r="DJ18" s="11"/>
       <c r="DK18" s="11"/>
+      <c r="DL18" s="10"/>
+      <c r="DM18" s="10"/>
+      <c r="DN18" s="10"/>
+      <c r="DO18" s="10"/>
+      <c r="DQ18" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/InputData.xlsx
+++ b/InputData.xlsx
@@ -1019,8 +1019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:DW18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AY2" sqref="AY2"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
+      <selection activeCell="DA1" sqref="CQ1:DA1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1298,23 +1298,23 @@
       </c>
       <c r="CR1" s="3"/>
       <c r="CS1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="CT1" s="3"/>
       <c r="CU1" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="CV1" s="3"/>
       <c r="CW1" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="CX1" s="3"/>
       <c r="CY1" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="CZ1" s="3"/>
       <c r="DA1" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="DB1" s="3"/>
       <c r="DC1" s="2" t="s">
